--- a/s_d/麻吉go12月.xlsx
+++ b/s_d/麻吉go12月.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="12.1" sheetId="1" r:id="rId1"/>
     <sheet name="12.2" sheetId="2" r:id="rId2"/>
-    <sheet name="12.3" sheetId="3" r:id="rId3"/>
+    <sheet name="12.3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -217,8 +217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -232,6 +247,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -239,23 +262,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,29 +287,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,24 +302,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,15 +318,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,7 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,13 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,13 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,19 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,55 +517,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,21 +634,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -665,45 +669,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +690,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -737,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,131 +749,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10419,13 +10419,12 @@
   <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="9.375"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:11">
@@ -10533,7 +10532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:16">
+    <row r="4" ht="15" spans="1:11">
       <c r="A4" s="3">
         <v>35740</v>
       </c>
@@ -10567,14 +10566,6 @@
       <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="11">
-        <v>50000</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
     </row>
     <row r="5" ht="15" spans="1:16">
       <c r="A5" s="3">
@@ -10611,17 +10602,13 @@
         <v>13</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="11">
-        <v>20000</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="11">
-        <v>20</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" ht="15" spans="1:16">
       <c r="A6" s="3">
@@ -10658,13 +10645,17 @@
         <v>13</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>64532</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="N6" s="11">
+        <v>20000</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="11">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" ht="15" spans="1:16">
       <c r="A7" s="3">
@@ -10701,15 +10692,15 @@
         <v>13</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="11">
-        <v>-5095.56</v>
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <v>68628.8</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" ht="15" spans="1:11">
+    <row r="8" ht="15" spans="1:16">
       <c r="A8" s="3">
         <v>35736</v>
       </c>
@@ -10743,6 +10734,14 @@
       <c r="K8" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="M8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="11">
+        <v>998.76</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" ht="15" spans="1:11">
       <c r="A9" s="3">
@@ -13966,22 +13965,22 @@
     </row>
     <row r="101" ht="15" spans="1:11">
       <c r="A101" s="1">
-        <v>35650</v>
+        <v>35630</v>
       </c>
       <c r="B101" s="1">
         <v>15874</v>
       </c>
       <c r="C101" s="1">
-        <v>2.01912031442131e+20</v>
+        <v>2.01912031418121e+20</v>
       </c>
       <c r="D101" s="2">
         <v>2</v>
       </c>
       <c r="E101" s="1">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="F101" s="1">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>11</v>
@@ -13990,10 +13989,10 @@
         <v>12</v>
       </c>
       <c r="I101" s="7">
-        <v>43802.6125</v>
+        <v>43802.5958333333</v>
       </c>
       <c r="J101" s="7">
-        <v>43802.6125925926</v>
+        <v>43802.5959143518</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>13</v>
@@ -14001,22 +14000,22 @@
     </row>
     <row r="102" ht="15" spans="1:11">
       <c r="A102" s="3">
-        <v>35649</v>
+        <v>35629</v>
       </c>
       <c r="B102" s="3">
         <v>15874</v>
       </c>
       <c r="C102" s="3">
-        <v>2.01912031441561e+20</v>
+        <v>2.01912031417591e+20</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
       </c>
       <c r="E102" s="3">
-        <v>76</v>
+        <v>748</v>
       </c>
       <c r="F102" s="3">
-        <v>76</v>
+        <v>748</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>11</v>
@@ -14025,10 +14024,10 @@
         <v>12</v>
       </c>
       <c r="I102" s="9">
-        <v>43802.6125</v>
+        <v>43802.5958333333</v>
       </c>
       <c r="J102" s="9">
-        <v>43802.6123842593</v>
+        <v>43802.595787037</v>
       </c>
       <c r="K102" s="10" t="s">
         <v>13</v>
@@ -14036,22 +14035,22 @@
     </row>
     <row r="103" ht="15" spans="1:11">
       <c r="A103" s="3">
-        <v>35648</v>
+        <v>35628</v>
       </c>
       <c r="B103" s="3">
         <v>15874</v>
       </c>
       <c r="C103" s="3">
-        <v>2.01912031441371e+20</v>
+        <v>2.01912031417481e+20</v>
       </c>
       <c r="D103" s="4">
         <v>2</v>
       </c>
       <c r="E103" s="3">
-        <v>308</v>
+        <v>626</v>
       </c>
       <c r="F103" s="3">
-        <v>308</v>
+        <v>626</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>11</v>
@@ -14060,10 +14059,10 @@
         <v>12</v>
       </c>
       <c r="I103" s="9">
-        <v>43802.6118055556</v>
+        <v>43802.5951388889</v>
       </c>
       <c r="J103" s="9">
-        <v>43802.6121875</v>
+        <v>43802.5956481481</v>
       </c>
       <c r="K103" s="10" t="s">
         <v>13</v>
@@ -14071,22 +14070,22 @@
     </row>
     <row r="104" ht="15" spans="1:11">
       <c r="A104" s="3">
-        <v>35647</v>
+        <v>35627</v>
       </c>
       <c r="B104" s="3">
         <v>15874</v>
       </c>
       <c r="C104" s="3">
-        <v>2.01912031441251e+20</v>
+        <v>2.01912031417371e+20</v>
       </c>
       <c r="D104" s="4">
         <v>2</v>
       </c>
       <c r="E104" s="3">
-        <v>355</v>
+        <v>349.9</v>
       </c>
       <c r="F104" s="3">
-        <v>355</v>
+        <v>349.9</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>11</v>
@@ -14095,10 +14094,10 @@
         <v>12</v>
       </c>
       <c r="I104" s="9">
-        <v>43802.6118055556</v>
+        <v>43802.5951388889</v>
       </c>
       <c r="J104" s="9">
-        <v>43802.6120486111</v>
+        <v>43802.595462963</v>
       </c>
       <c r="K104" s="10" t="s">
         <v>13</v>
@@ -14106,22 +14105,22 @@
     </row>
     <row r="105" ht="15" spans="1:11">
       <c r="A105" s="3">
-        <v>35646</v>
+        <v>35626</v>
       </c>
       <c r="B105" s="3">
         <v>15874</v>
       </c>
       <c r="C105" s="3">
-        <v>2.01912031441141e+20</v>
+        <v>2.01912031417201e+20</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
       </c>
       <c r="E105" s="3">
-        <v>108</v>
+        <v>513</v>
       </c>
       <c r="F105" s="3">
-        <v>108</v>
+        <v>513</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>11</v>
@@ -14130,10 +14129,10 @@
         <v>12</v>
       </c>
       <c r="I105" s="9">
-        <v>43802.6118055556</v>
+        <v>43802.5951388889</v>
       </c>
       <c r="J105" s="9">
-        <v>43802.6119328704</v>
+        <v>43802.5953356481</v>
       </c>
       <c r="K105" s="10" t="s">
         <v>13</v>
@@ -14141,22 +14140,22 @@
     </row>
     <row r="106" ht="15" spans="1:11">
       <c r="A106" s="3">
-        <v>35645</v>
+        <v>35625</v>
       </c>
       <c r="B106" s="3">
         <v>15874</v>
       </c>
       <c r="C106" s="3">
-        <v>2.01912031441041e+20</v>
+        <v>2.01912031417091e+20</v>
       </c>
       <c r="D106" s="4">
         <v>2</v>
       </c>
       <c r="E106" s="3">
-        <v>189.9</v>
+        <v>245</v>
       </c>
       <c r="F106" s="3">
-        <v>189.9</v>
+        <v>245</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>11</v>
@@ -14165,10 +14164,10 @@
         <v>12</v>
       </c>
       <c r="I106" s="9">
-        <v>43802.6118055556</v>
+        <v>43802.5951388889</v>
       </c>
       <c r="J106" s="9">
-        <v>43802.6118171296</v>
+        <v>43802.5951851852</v>
       </c>
       <c r="K106" s="10" t="s">
         <v>13</v>
@@ -14176,22 +14175,22 @@
     </row>
     <row r="107" ht="15" spans="1:11">
       <c r="A107" s="3">
-        <v>35644</v>
+        <v>35624</v>
       </c>
       <c r="B107" s="3">
         <v>15874</v>
       </c>
       <c r="C107" s="3">
-        <v>2.01912031440521e+20</v>
+        <v>2.01912031416561e+20</v>
       </c>
       <c r="D107" s="4">
         <v>2</v>
       </c>
       <c r="E107" s="3">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F107" s="3">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>11</v>
@@ -14200,10 +14199,10 @@
         <v>12</v>
       </c>
       <c r="I107" s="9">
-        <v>43802.6111111111</v>
+        <v>43802.5951388889</v>
       </c>
       <c r="J107" s="9">
-        <v>43802.6026041667</v>
+        <v>43802.5950462963</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>13</v>
@@ -14211,22 +14210,22 @@
     </row>
     <row r="108" ht="15" spans="1:11">
       <c r="A108" s="3">
-        <v>35643</v>
+        <v>35623</v>
       </c>
       <c r="B108" s="3">
         <v>15874</v>
       </c>
       <c r="C108" s="3">
-        <v>2.01912031427371e+20</v>
+        <v>2.01912031416451e+20</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
       </c>
       <c r="E108" s="3">
-        <v>258</v>
+        <v>640</v>
       </c>
       <c r="F108" s="3">
-        <v>258</v>
+        <v>640</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>11</v>
@@ -14235,10 +14234,10 @@
         <v>12</v>
       </c>
       <c r="I108" s="9">
-        <v>43802.6020833333</v>
+        <v>43802.5944444444</v>
       </c>
       <c r="J108" s="9">
-        <v>43802.6024305556</v>
+        <v>43802.5948611111</v>
       </c>
       <c r="K108" s="10" t="s">
         <v>13</v>
@@ -14246,22 +14245,22 @@
     </row>
     <row r="109" ht="15" spans="1:11">
       <c r="A109" s="3">
-        <v>35642</v>
+        <v>35622</v>
       </c>
       <c r="B109" s="3">
         <v>15874</v>
       </c>
       <c r="C109" s="3">
-        <v>2.01912031427221e+20</v>
+        <v>2.01912031416291e+20</v>
       </c>
       <c r="D109" s="4">
         <v>2</v>
       </c>
       <c r="E109" s="3">
-        <v>199</v>
+        <v>1565</v>
       </c>
       <c r="F109" s="3">
-        <v>199</v>
+        <v>1565</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>11</v>
@@ -14270,10 +14269,10 @@
         <v>12</v>
       </c>
       <c r="I109" s="9">
-        <v>43802.6020833333</v>
+        <v>43802.5944444444</v>
       </c>
       <c r="J109" s="9">
-        <v>43802.6023032407</v>
+        <v>43802.5947337963</v>
       </c>
       <c r="K109" s="10" t="s">
         <v>13</v>
@@ -14281,22 +14280,22 @@
     </row>
     <row r="110" ht="15" spans="1:11">
       <c r="A110" s="3">
-        <v>35641</v>
+        <v>35621</v>
       </c>
       <c r="B110" s="3">
         <v>15874</v>
       </c>
       <c r="C110" s="3">
-        <v>2.01912031427101e+20</v>
+        <v>2.01912031416181e+20</v>
       </c>
       <c r="D110" s="4">
         <v>2</v>
       </c>
       <c r="E110" s="3">
-        <v>288</v>
+        <v>745</v>
       </c>
       <c r="F110" s="3">
-        <v>288</v>
+        <v>745</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>11</v>
@@ -14305,10 +14304,10 @@
         <v>12</v>
       </c>
       <c r="I110" s="9">
-        <v>43802.6020833333</v>
+        <v>43802.5944444444</v>
       </c>
       <c r="J110" s="9">
-        <v>43802.6021643519</v>
+        <v>43802.5946064815</v>
       </c>
       <c r="K110" s="10" t="s">
         <v>13</v>
@@ -14316,22 +14315,22 @@
     </row>
     <row r="111" ht="15" spans="1:11">
       <c r="A111" s="3">
-        <v>35640</v>
+        <v>35620</v>
       </c>
       <c r="B111" s="3">
         <v>15874</v>
       </c>
       <c r="C111" s="3">
-        <v>2.01912031426581e+20</v>
+        <v>2.01912031416031e+20</v>
       </c>
       <c r="D111" s="4">
         <v>2</v>
       </c>
       <c r="E111" s="3">
-        <v>252</v>
+        <v>267.9</v>
       </c>
       <c r="F111" s="3">
-        <v>252</v>
+        <v>267.9</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>11</v>
@@ -14340,10 +14339,10 @@
         <v>12</v>
       </c>
       <c r="I111" s="9">
-        <v>43802.6020833333</v>
+        <v>43802.5944444444</v>
       </c>
       <c r="J111" s="9">
-        <v>43802.602025463</v>
+        <v>43802.5865856481</v>
       </c>
       <c r="K111" s="10" t="s">
         <v>13</v>
@@ -14351,22 +14350,22 @@
     </row>
     <row r="112" ht="15" spans="1:11">
       <c r="A112" s="3">
-        <v>35639</v>
+        <v>35619</v>
       </c>
       <c r="B112" s="3">
         <v>15874</v>
       </c>
       <c r="C112" s="3">
-        <v>2.01912031426471e+20</v>
+        <v>2.01912031404301e+20</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
       </c>
       <c r="E112" s="3">
-        <v>138</v>
+        <v>327.9</v>
       </c>
       <c r="F112" s="3">
-        <v>138</v>
+        <v>327.9</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>11</v>
@@ -14375,10 +14374,10 @@
         <v>12</v>
       </c>
       <c r="I112" s="9">
-        <v>43802.6013888889</v>
+        <v>43802.5861111111</v>
       </c>
       <c r="J112" s="9">
-        <v>43802.6018865741</v>
+        <v>43802.586400463</v>
       </c>
       <c r="K112" s="10" t="s">
         <v>13</v>
@@ -14386,22 +14385,22 @@
     </row>
     <row r="113" ht="15" spans="1:11">
       <c r="A113" s="3">
-        <v>35638</v>
+        <v>35618</v>
       </c>
       <c r="B113" s="3">
         <v>15874</v>
       </c>
       <c r="C113" s="3">
-        <v>2.01912031426351e+20</v>
+        <v>2.01912031404111e+20</v>
       </c>
       <c r="D113" s="4">
         <v>2</v>
       </c>
       <c r="E113" s="3">
-        <v>847</v>
+        <v>589.9</v>
       </c>
       <c r="F113" s="3">
-        <v>847</v>
+        <v>589.9</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>11</v>
@@ -14410,10 +14409,10 @@
         <v>12</v>
       </c>
       <c r="I113" s="9">
-        <v>43802.6013888889</v>
+        <v>43802.5861111111</v>
       </c>
       <c r="J113" s="9">
-        <v>43802.6017592593</v>
+        <v>43802.5861342593</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>13</v>
@@ -14421,22 +14420,22 @@
     </row>
     <row r="114" ht="15" spans="1:11">
       <c r="A114" s="3">
-        <v>35637</v>
+        <v>35617</v>
       </c>
       <c r="B114" s="3">
         <v>15874</v>
       </c>
       <c r="C114" s="3">
-        <v>2.01912031426241e+20</v>
+        <v>2.01912031403521e+20</v>
       </c>
       <c r="D114" s="4">
         <v>2</v>
       </c>
       <c r="E114" s="3">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="F114" s="3">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>11</v>
@@ -14445,10 +14444,10 @@
         <v>12</v>
       </c>
       <c r="I114" s="9">
-        <v>43802.6013888889</v>
+        <v>43802.5854166667</v>
       </c>
       <c r="J114" s="9">
-        <v>43802.6016087963</v>
+        <v>43802.5859953704</v>
       </c>
       <c r="K114" s="10" t="s">
         <v>13</v>
@@ -14456,22 +14455,22 @@
     </row>
     <row r="115" ht="15" spans="1:11">
       <c r="A115" s="3">
-        <v>35636</v>
+        <v>35616</v>
       </c>
       <c r="B115" s="3">
         <v>15874</v>
       </c>
       <c r="C115" s="3">
-        <v>2.01912031426101e+20</v>
+        <v>2.01912031403361e+20</v>
       </c>
       <c r="D115" s="4">
         <v>2</v>
       </c>
       <c r="E115" s="3">
-        <v>578</v>
+        <v>48</v>
       </c>
       <c r="F115" s="3">
-        <v>578</v>
+        <v>48</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>11</v>
@@ -14480,10 +14479,10 @@
         <v>12</v>
       </c>
       <c r="I115" s="9">
-        <v>43802.6013888889</v>
+        <v>43802.5854166667</v>
       </c>
       <c r="J115" s="9">
-        <v>43802.5975925926</v>
+        <v>43802.5857407407</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>13</v>
@@ -14491,22 +14490,22 @@
     </row>
     <row r="116" ht="15" spans="1:11">
       <c r="A116" s="3">
-        <v>35635</v>
+        <v>35615</v>
       </c>
       <c r="B116" s="3">
         <v>15874</v>
       </c>
       <c r="C116" s="3">
-        <v>2.01912031420251e+20</v>
+        <v>2.01912031403121e+20</v>
       </c>
       <c r="D116" s="4">
         <v>2</v>
       </c>
       <c r="E116" s="3">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="F116" s="3">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>11</v>
@@ -14515,10 +14514,10 @@
         <v>12</v>
       </c>
       <c r="I116" s="9">
-        <v>43802.5972222222</v>
+        <v>43802.5854166667</v>
       </c>
       <c r="J116" s="9">
-        <v>43802.5974652778</v>
+        <v>43802.5853472222</v>
       </c>
       <c r="K116" s="10" t="s">
         <v>13</v>
@@ -14526,22 +14525,22 @@
     </row>
     <row r="117" ht="15" spans="1:11">
       <c r="A117" s="3">
-        <v>35634</v>
+        <v>35614</v>
       </c>
       <c r="B117" s="3">
         <v>15874</v>
       </c>
       <c r="C117" s="3">
-        <v>2.01912031420141e+20</v>
+        <v>2.01912031402411e+20</v>
       </c>
       <c r="D117" s="4">
         <v>2</v>
       </c>
       <c r="E117" s="3">
-        <v>124</v>
+        <v>768</v>
       </c>
       <c r="F117" s="3">
-        <v>124</v>
+        <v>768</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>11</v>
@@ -14550,10 +14549,10 @@
         <v>12</v>
       </c>
       <c r="I117" s="9">
-        <v>43802.5972222222</v>
+        <v>43802.5847222222</v>
       </c>
       <c r="J117" s="9">
-        <v>43802.597337963</v>
+        <v>43802.585162037</v>
       </c>
       <c r="K117" s="10" t="s">
         <v>13</v>
@@ -14561,22 +14560,22 @@
     </row>
     <row r="118" ht="15" spans="1:11">
       <c r="A118" s="3">
-        <v>35633</v>
+        <v>35613</v>
       </c>
       <c r="B118" s="3">
         <v>15874</v>
       </c>
       <c r="C118" s="3">
-        <v>2.01912031420021e+20</v>
+        <v>2.01912031402281e+20</v>
       </c>
       <c r="D118" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" s="3">
-        <v>90</v>
+        <v>1259</v>
       </c>
       <c r="F118" s="3">
-        <v>90</v>
+        <v>1259</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>11</v>
@@ -14585,10 +14584,10 @@
         <v>12</v>
       </c>
       <c r="I118" s="9">
-        <v>43802.5972222222</v>
+        <v>43802.5847222222</v>
       </c>
       <c r="J118" s="9">
-        <v>43802.5963078704</v>
+        <v>43802.5850115741</v>
       </c>
       <c r="K118" s="10" t="s">
         <v>13</v>
@@ -14596,22 +14595,22 @@
     </row>
     <row r="119" ht="15" spans="1:11">
       <c r="A119" s="3">
-        <v>35632</v>
+        <v>35612</v>
       </c>
       <c r="B119" s="3">
         <v>15874</v>
       </c>
       <c r="C119" s="3">
-        <v>2.01912031418341e+20</v>
+        <v>2.01912031402161e+20</v>
       </c>
       <c r="D119" s="4">
         <v>2</v>
       </c>
       <c r="E119" s="3">
-        <v>457.9</v>
+        <v>124</v>
       </c>
       <c r="F119" s="3">
-        <v>457.9</v>
+        <v>124</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>11</v>
@@ -14620,10 +14619,10 @@
         <v>12</v>
       </c>
       <c r="I119" s="9">
-        <v>43802.5958333333</v>
+        <v>43802.5847222222</v>
       </c>
       <c r="J119" s="9">
-        <v>43802.5961805556</v>
+        <v>43802.5792939815</v>
       </c>
       <c r="K119" s="10" t="s">
         <v>13</v>
@@ -14631,22 +14630,22 @@
     </row>
     <row r="120" ht="15" spans="1:11">
       <c r="A120" s="5">
-        <v>35631</v>
+        <v>35611</v>
       </c>
       <c r="B120" s="5">
         <v>15874</v>
       </c>
       <c r="C120" s="5">
-        <v>2.01912031418231e+20</v>
+        <v>2.01912031354041e+20</v>
       </c>
       <c r="D120" s="6">
         <v>2</v>
       </c>
       <c r="E120" s="5">
-        <v>543</v>
+        <v>248</v>
       </c>
       <c r="F120" s="5">
-        <v>543</v>
+        <v>248</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>11</v>
@@ -14655,10 +14654,10 @@
         <v>12</v>
       </c>
       <c r="I120" s="12">
-        <v>43802.5958333333</v>
+        <v>43802.5791666667</v>
       </c>
       <c r="J120" s="12">
-        <v>43802.5960532407</v>
+        <v>43802.5791550926</v>
       </c>
       <c r="K120" s="13" t="s">
         <v>13</v>

--- a/s_d/麻吉go12月.xlsx
+++ b/s_d/麻吉go12月.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="12.1" sheetId="1" r:id="rId1"/>
     <sheet name="12.2" sheetId="2" r:id="rId2"/>
     <sheet name="12.3" sheetId="4" r:id="rId3"/>
+    <sheet name="12.4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -126,39 +127,16 @@
       <t>订单发货</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t>查看详情</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单发货</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -210,6 +188,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -218,7 +218,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,37 +270,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -278,55 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,8 +316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,7 +357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,25 +393,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,31 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,13 +489,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,73 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,30 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -669,32 +623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,11 +651,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,131 +727,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10418,8 +10396,8 @@
   <sheetPr/>
   <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10428,177 +10406,177 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:11">
-      <c r="A1" s="1">
+      <c r="A1" s="14">
         <v>35744</v>
       </c>
-      <c r="B1" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B1" s="14">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="14">
         <v>2.01912031832281e+20</v>
       </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="15">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14">
         <v>2180</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="14">
         <v>2180</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="7">
+      <c r="G1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="20">
         <v>43802.7722222222</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="20">
         <v>43802.7725115741</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:11">
-      <c r="A2" s="3">
+      <c r="A2" s="16">
         <v>35743</v>
       </c>
-      <c r="B2" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="16">
         <v>2.01912031832161e+20</v>
       </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="17">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
         <v>602</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="16">
         <v>602</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="G2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="22">
         <v>43802.7722222222</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="22">
         <v>43802.7723842593</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:11">
-      <c r="A3" s="3">
+      <c r="A3" s="16">
         <v>35742</v>
       </c>
-      <c r="B3" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="16">
         <v>2.01912031832051e+20</v>
       </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="17">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
         <v>61</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="16">
         <v>61</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="G3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="22">
         <v>43802.7722222222</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="22">
         <v>43802.7722569444</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:11">
-      <c r="A4" s="3">
+      <c r="A4" s="16">
         <v>35740</v>
       </c>
-      <c r="B4" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="16">
         <v>2.01912031831551e+20</v>
       </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
         <v>259</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="16">
         <v>259</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="22">
         <v>43802.7722222222</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="22">
         <v>43802.7721180556</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:16">
-      <c r="A5" s="3">
+      <c r="A5" s="16">
         <v>35739</v>
       </c>
-      <c r="B5" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="16">
         <v>2.01912031831431e+20</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
         <v>131</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="16">
         <v>131</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="G5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="22">
         <v>43802.7715277778</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="22">
         <v>43802.7719907407</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="11" t="s">
@@ -10611,37 +10589,37 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" ht="15" spans="1:16">
-      <c r="A6" s="3">
+      <c r="A6" s="16">
         <v>35738</v>
       </c>
-      <c r="B6" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="16">
         <v>2.01912031831311e+20</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="16">
         <v>82</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="16">
         <v>82</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="G6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="22">
         <v>43802.7715277778</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="22">
         <v>43802.7718634259</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="11" t="s">
@@ -10658,37 +10636,37 @@
       </c>
     </row>
     <row r="7" ht="15" spans="1:16">
-      <c r="A7" s="3">
+      <c r="A7" s="16">
         <v>35737</v>
       </c>
-      <c r="B7" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="16">
         <v>2.01912031831181e+20</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="16">
         <v>470</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="16">
         <v>470</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="G7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="22">
         <v>43802.7715277778</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="22">
         <v>43802.7717013889</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -10701,37 +10679,37 @@
       <c r="P7" s="11"/>
     </row>
     <row r="8" ht="15" spans="1:16">
-      <c r="A8" s="3">
+      <c r="A8" s="16">
         <v>35736</v>
       </c>
-      <c r="B8" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="16">
         <v>2.01912031831041e+20</v>
       </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16">
         <v>875</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="16">
         <v>875</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="22">
         <v>43802.7715277778</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="22">
         <v>43802.7715509259</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="11" t="s">
@@ -10744,4343 +10722,4343 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" ht="15" spans="1:11">
-      <c r="A9" s="3">
+      <c r="A9" s="16">
         <v>35735</v>
       </c>
-      <c r="B9" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="16">
         <v>2.01912031830521e+20</v>
       </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16">
         <v>299</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="16">
         <v>299</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="G9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="22">
         <v>43802.7708333333</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="22">
         <v>43802.771400463</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:11">
-      <c r="A10" s="3">
+      <c r="A10" s="16">
         <v>35734</v>
       </c>
-      <c r="B10" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="16">
         <v>2.01912031830411e+20</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="16">
         <v>79</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="16">
         <v>79</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="G10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="22">
         <v>43802.7708333333</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="22">
         <v>43802.7712615741</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:11">
-      <c r="A11" s="3">
+      <c r="A11" s="16">
         <v>35723</v>
       </c>
-      <c r="B11" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="16">
         <v>2.01912031723371e+20</v>
       </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16">
         <v>258</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="16">
         <v>258</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="G11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="22">
         <v>43802.7243055556</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="22">
         <v>43802.7246643519</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:11">
-      <c r="A12" s="3">
+      <c r="A12" s="16">
         <v>35722</v>
       </c>
-      <c r="B12" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="16">
         <v>2.01912031723151e+20</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="16">
         <v>549</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="16">
         <v>549</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="G12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="22">
         <v>43802.7243055556</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="22">
         <v>43802.7244212963</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:11">
-      <c r="A13" s="3">
+      <c r="A13" s="16">
         <v>35721</v>
       </c>
-      <c r="B13" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="16">
         <v>2.01912031723021e+20</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="16">
         <v>700</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="16">
         <v>700</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="G13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="22">
         <v>43802.7243055556</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="22">
         <v>43802.7242824074</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:11">
-      <c r="A14" s="3">
+      <c r="A14" s="16">
         <v>35720</v>
       </c>
-      <c r="B14" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="16">
         <v>2.01912031722471e+20</v>
       </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16">
         <v>140</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="16">
         <v>140</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="G14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="22">
         <v>43802.7236111111</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="22">
         <v>43802.7241087963</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:11">
-      <c r="A15" s="3">
+      <c r="A15" s="16">
         <v>35719</v>
       </c>
-      <c r="B15" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="16">
         <v>2.01912031722331e+20</v>
       </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16">
         <v>387</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="16">
         <v>387</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="G15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="22">
         <v>43802.7236111111</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="22">
         <v>43802.723912037</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:11">
-      <c r="A16" s="3">
+      <c r="A16" s="16">
         <v>35718</v>
       </c>
-      <c r="B16" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="16">
         <v>2.01912031722151e+20</v>
       </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16">
         <v>119.9</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="16">
         <v>119.9</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="22">
         <v>43802.7236111111</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="22">
         <v>43802.7237268519</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:11">
-      <c r="A17" s="3">
+      <c r="A17" s="16">
         <v>35717</v>
       </c>
-      <c r="B17" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="16">
         <v>2.01912031721591e+20</v>
       </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="16">
         <v>339</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="16">
         <v>339</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="G17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="22">
         <v>43802.7236111111</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="22">
         <v>43802.7235532407</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:11">
-      <c r="A18" s="3">
+      <c r="A18" s="16">
         <v>35716</v>
       </c>
-      <c r="B18" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="16">
         <v>2.01912031721451e+20</v>
       </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="17">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16">
         <v>1680</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="16">
         <v>1680</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="G18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="22">
         <v>43802.7229166667</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="22">
         <v>43802.7233449074</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:11">
-      <c r="A19" s="3">
+      <c r="A19" s="16">
         <v>35715</v>
       </c>
-      <c r="B19" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="16">
         <v>2.01912031721031e+20</v>
       </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="17">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
         <v>638.9</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="16">
         <v>638.9</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="G19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="22">
         <v>43802.7229166667</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="22">
         <v>43802.7228703704</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:11">
-      <c r="A20" s="5">
+      <c r="A20" s="18">
         <v>35714</v>
       </c>
-      <c r="B20" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="18">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="18">
         <v>2.01912031720451e+20</v>
       </c>
-      <c r="D20" s="6">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
         <v>169</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="18">
         <v>169</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="12">
+      <c r="G20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="24">
         <v>43802.7222222222</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="24">
         <v>43802.7226851852</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:11">
-      <c r="A21" s="1">
+      <c r="A21" s="14">
         <v>35713</v>
       </c>
-      <c r="B21" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="14">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="14">
         <v>2.01912031720301e+20</v>
       </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="14">
         <v>107.9</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="14">
         <v>107.9</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="G21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="20">
         <v>43802.7222222222</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="20">
         <v>43802.7225347222</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:11">
-      <c r="A22" s="3">
+      <c r="A22" s="16">
         <v>35712</v>
       </c>
-      <c r="B22" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="16">
         <v>2.01912031720171e+20</v>
       </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="17">
+        <v>2</v>
+      </c>
+      <c r="E22" s="16">
         <v>949</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="16">
         <v>949</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="G22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="22">
         <v>43802.7222222222</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="22">
         <v>43802.7223842593</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:11">
-      <c r="A23" s="3">
+      <c r="A23" s="16">
         <v>35711</v>
       </c>
-      <c r="B23" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="16">
         <v>2.01912031720031e+20</v>
       </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="17">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16">
         <v>114</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="16">
         <v>114</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="G23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="22">
         <v>43802.7222222222</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="22">
         <v>43802.7222222222</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:11">
-      <c r="A24" s="3">
+      <c r="A24" s="16">
         <v>35710</v>
       </c>
-      <c r="B24" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="16">
         <v>2.01912031719461e+20</v>
       </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="17">
+        <v>2</v>
+      </c>
+      <c r="E24" s="16">
         <v>565</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="16">
         <v>565</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="G24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="22">
         <v>43802.7215277778</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="22">
         <v>43802.7220138889</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:11">
-      <c r="A25" s="3">
+      <c r="A25" s="16">
         <v>35709</v>
       </c>
-      <c r="B25" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="16">
         <v>2.01912031719351e+20</v>
       </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="17">
+        <v>2</v>
+      </c>
+      <c r="E25" s="16">
         <v>843</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="16">
         <v>843</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="G25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="22">
         <v>43802.7215277778</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="22">
         <v>43802.7218981481</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:11">
-      <c r="A26" s="3">
+      <c r="A26" s="16">
         <v>35708</v>
       </c>
-      <c r="B26" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="16">
         <v>2.01912031719211e+20</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="17">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="16">
         <v>42</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="16">
         <v>42</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="G26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="22">
         <v>43802.7215277778</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="22">
         <v>43802.721724537</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:11">
-      <c r="A27" s="3">
+      <c r="A27" s="16">
         <v>35707</v>
       </c>
-      <c r="B27" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="16">
         <v>2.01912031719091e+20</v>
       </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="17">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16">
         <v>91</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="16">
         <v>91</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="9">
+      <c r="G27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="22">
         <v>43802.7215277778</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="22">
         <v>43802.7215740741</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:11">
-      <c r="A28" s="3">
+      <c r="A28" s="16">
         <v>35706</v>
       </c>
-      <c r="B28" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="16">
         <v>2.01912031718501e+20</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="17">
         <v>1</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="16">
         <v>50</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="16">
         <v>50</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="G28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="22">
         <v>43802.7208333333</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="22">
         <v>43802.7213541667</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:11">
-      <c r="A29" s="3">
+      <c r="A29" s="16">
         <v>35705</v>
       </c>
-      <c r="B29" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="16">
         <v>2.01912031718291e+20</v>
       </c>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="17">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
         <v>497</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="16">
         <v>497</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="G29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="22">
         <v>43802.7208333333</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="22">
         <v>43802.7211226852</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:11">
-      <c r="A30" s="3">
+      <c r="A30" s="16">
         <v>35704</v>
       </c>
-      <c r="B30" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="16">
         <v>2.01912031718131e+20</v>
       </c>
-      <c r="D30" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="17">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16">
         <v>515</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="16">
         <v>515</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="G30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="22">
         <v>43802.7208333333</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="22">
         <v>43802.7209490741</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:11">
-      <c r="A31" s="3">
+      <c r="A31" s="16">
         <v>35703</v>
       </c>
-      <c r="B31" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="16">
         <v>2.01912031717591e+20</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="17">
         <v>1</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="16">
         <v>42</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="16">
         <v>42</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="G31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="22">
         <v>43802.7208333333</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="22">
         <v>43802.720775463</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:11">
-      <c r="A32" s="3">
+      <c r="A32" s="16">
         <v>35702</v>
       </c>
-      <c r="B32" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="16">
         <v>2.01912031717441e+20</v>
       </c>
-      <c r="D32" s="4">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="17">
+        <v>2</v>
+      </c>
+      <c r="E32" s="16">
         <v>81.9</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="16">
         <v>81.9</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="G32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="22">
         <v>43802.7201388889</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="22">
         <v>43802.7205787037</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:11">
-      <c r="A33" s="3">
+      <c r="A33" s="16">
         <v>35701</v>
       </c>
-      <c r="B33" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="16">
         <v>2.01912031717251e+20</v>
       </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="17">
+        <v>2</v>
+      </c>
+      <c r="E33" s="16">
         <v>218</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="16">
         <v>218</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="G33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="22">
         <v>43802.7201388889</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="22">
         <v>43802.7203819444</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:11">
-      <c r="A34" s="3">
+      <c r="A34" s="16">
         <v>35700</v>
       </c>
-      <c r="B34" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="B34" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="16">
         <v>2.01912031717091e+20</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="17">
         <v>1</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="16">
         <v>595</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="16">
         <v>595</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="G34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="22">
         <v>43802.7201388889</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="22">
         <v>43802.7199768519</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:11">
-      <c r="A35" s="3">
+      <c r="A35" s="16">
         <v>35699</v>
       </c>
-      <c r="B35" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="16">
         <v>2.01912031716371e+20</v>
       </c>
-      <c r="D35" s="4">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="17">
+        <v>2</v>
+      </c>
+      <c r="E35" s="16">
         <v>922</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="16">
         <v>922</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="9">
+      <c r="G35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="22">
         <v>43802.7194444444</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="22">
         <v>43802.7195949074</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:11">
-      <c r="A36" s="3">
+      <c r="A36" s="16">
         <v>35698</v>
       </c>
-      <c r="B36" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="16">
         <v>2.01912031715571e+20</v>
       </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D36" s="17">
+        <v>2</v>
+      </c>
+      <c r="E36" s="16">
         <v>138</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="16">
         <v>138</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="G36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="22">
         <v>43802.7194444444</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="22">
         <v>43802.7170601852</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:11">
-      <c r="A37" s="3">
+      <c r="A37" s="16">
         <v>35694</v>
       </c>
-      <c r="B37" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="16">
         <v>2.01912031454061e+20</v>
       </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37" s="17">
+        <v>2</v>
+      </c>
+      <c r="E37" s="16">
         <v>958</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="16">
         <v>958</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="G37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="22">
         <v>43802.6208333333</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="22">
         <v>43802.6208680556</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:11">
-      <c r="A38" s="3">
+      <c r="A38" s="16">
         <v>35693</v>
       </c>
-      <c r="B38" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="16">
         <v>2.01912031453551e+20</v>
       </c>
-      <c r="D38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" s="17">
+        <v>2</v>
+      </c>
+      <c r="E38" s="16">
         <v>1218</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="16">
         <v>1218</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="G38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="22">
         <v>43802.6208333333</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="22">
         <v>43802.6207407407</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:11">
-      <c r="A39" s="3">
+      <c r="A39" s="16">
         <v>35692</v>
       </c>
-      <c r="B39" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="16">
         <v>2.01912031453411e+20</v>
       </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D39" s="17">
+        <v>2</v>
+      </c>
+      <c r="E39" s="16">
         <v>297</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="16">
         <v>297</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="G39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="22">
         <v>43802.6201388889</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="22">
         <v>43802.6205787037</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:11">
-      <c r="A40" s="5">
+      <c r="A40" s="18">
         <v>35691</v>
       </c>
-      <c r="B40" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B40" s="18">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="18">
         <v>2.01912031453271e+20</v>
       </c>
-      <c r="D40" s="6">
-        <v>2</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40" s="19">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18">
         <v>109</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="18">
         <v>109</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="12">
+      <c r="G40" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="24">
         <v>43802.6201388889</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="24">
         <v>43802.6204166667</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:11">
-      <c r="A41" s="1">
+      <c r="A41" s="14">
         <v>35690</v>
       </c>
-      <c r="B41" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B41" s="14">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="14">
         <v>2.01912031453131e+20</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="15">
         <v>1</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="14">
         <v>98</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="14">
         <v>98</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="7">
+      <c r="G41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="20">
         <v>43802.6201388889</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="20">
         <v>43802.6202546296</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:11">
-      <c r="A42" s="3">
+      <c r="A42" s="16">
         <v>35689</v>
       </c>
-      <c r="B42" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="16">
         <v>2.01912031453001e+20</v>
       </c>
-      <c r="D42" s="4">
-        <v>2</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="17">
+        <v>2</v>
+      </c>
+      <c r="E42" s="16">
         <v>1007</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="16">
         <v>1007</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="G42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="22">
         <v>43802.6201388889</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="22">
         <v>43802.6200925926</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:11">
-      <c r="A43" s="3">
+      <c r="A43" s="16">
         <v>35688</v>
       </c>
-      <c r="B43" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="16">
         <v>2.01912031452451e+20</v>
       </c>
-      <c r="D43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="17">
+        <v>2</v>
+      </c>
+      <c r="E43" s="16">
         <v>823</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="16">
         <v>823</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="9">
+      <c r="G43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="22">
         <v>43802.6194444444</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="22">
         <v>43802.6199305556</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:11">
-      <c r="A44" s="3">
+      <c r="A44" s="16">
         <v>35687</v>
       </c>
-      <c r="B44" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B44" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="16">
         <v>2.01912031452311e+20</v>
       </c>
-      <c r="D44" s="4">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" s="16">
         <v>92</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="16">
         <v>92</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="9">
+      <c r="G44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="22">
         <v>43802.6194444444</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="22">
         <v>43802.6197569444</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:11">
-      <c r="A45" s="3">
+      <c r="A45" s="16">
         <v>35686</v>
       </c>
-      <c r="B45" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="16">
         <v>2.01912031452141e+20</v>
       </c>
-      <c r="D45" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="17">
+        <v>2</v>
+      </c>
+      <c r="E45" s="16">
         <v>157</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="16">
         <v>157</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="9">
+      <c r="G45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="22">
         <v>43802.6194444444</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="22">
         <v>43802.6195717593</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:11">
-      <c r="A46" s="3">
+      <c r="A46" s="16">
         <v>35685</v>
       </c>
-      <c r="B46" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="16">
         <v>2.01912031451591e+20</v>
       </c>
-      <c r="D46" s="4">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="17">
+        <v>2</v>
+      </c>
+      <c r="E46" s="16">
         <v>777</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="16">
         <v>777</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="9">
+      <c r="G46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="22">
         <v>43802.6194444444</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="22">
         <v>43802.6193865741</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:11">
-      <c r="A47" s="3">
+      <c r="A47" s="16">
         <v>35684</v>
       </c>
-      <c r="B47" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B47" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="16">
         <v>2.01912031451431e+20</v>
       </c>
-      <c r="D47" s="4">
-        <v>2</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="17">
+        <v>2</v>
+      </c>
+      <c r="E47" s="16">
         <v>710</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="16">
         <v>710</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="9">
+      <c r="G47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="22">
         <v>43802.61875</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="22">
         <v>43802.619212963</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:11">
-      <c r="A48" s="3">
+      <c r="A48" s="16">
         <v>35683</v>
       </c>
-      <c r="B48" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="B48" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="16">
         <v>2.01912031451281e+20</v>
       </c>
-      <c r="D48" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="17">
+        <v>2</v>
+      </c>
+      <c r="E48" s="16">
         <v>457</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="16">
         <v>457</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="9">
+      <c r="G48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="22">
         <v>43802.61875</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="22">
         <v>43802.6190162037</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:11">
-      <c r="A49" s="3">
+      <c r="A49" s="16">
         <v>35682</v>
       </c>
-      <c r="B49" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="16">
         <v>2.01912031451061e+20</v>
       </c>
-      <c r="D49" s="4">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="17">
+        <v>2</v>
+      </c>
+      <c r="E49" s="16">
         <v>760</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="16">
         <v>760</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="9">
+      <c r="G49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="22">
         <v>43802.61875</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="22">
         <v>43802.6186921296</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:11">
-      <c r="A50" s="3">
+      <c r="A50" s="16">
         <v>35681</v>
       </c>
-      <c r="B50" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="B50" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="16">
         <v>2.01912031450441e+20</v>
       </c>
-      <c r="D50" s="4">
-        <v>2</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" s="17">
+        <v>2</v>
+      </c>
+      <c r="E50" s="16">
         <v>841</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="16">
         <v>841</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="9">
+      <c r="G50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="22">
         <v>43802.6180555556</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="22">
         <v>43802.6185185185</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:11">
-      <c r="A51" s="3">
+      <c r="A51" s="16">
         <v>35680</v>
       </c>
-      <c r="B51" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="B51" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="16">
         <v>2.01912031450301e+20</v>
       </c>
-      <c r="D51" s="4">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51" s="17">
+        <v>2</v>
+      </c>
+      <c r="E51" s="16">
         <v>503</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="16">
         <v>503</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="9">
+      <c r="G51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="22">
         <v>43802.6180555556</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="22">
         <v>43802.6183796296</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:11">
-      <c r="A52" s="3">
+      <c r="A52" s="16">
         <v>35679</v>
       </c>
-      <c r="B52" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="B52" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="16">
         <v>2.01912031450171e+20</v>
       </c>
-      <c r="D52" s="4">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="17">
+        <v>2</v>
+      </c>
+      <c r="E52" s="16">
         <v>224.9</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="16">
         <v>224.9</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="9">
+      <c r="G52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="22">
         <v>43802.6180555556</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="22">
         <v>43802.6182291667</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:11">
-      <c r="A53" s="3">
+      <c r="A53" s="16">
         <v>35678</v>
       </c>
-      <c r="B53" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="B53" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="16">
         <v>2.01912031450081e+20</v>
       </c>
-      <c r="D53" s="4">
-        <v>2</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D53" s="17">
+        <v>2</v>
+      </c>
+      <c r="E53" s="16">
         <v>225</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="16">
         <v>225</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="9">
+      <c r="G53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="22">
         <v>43802.6180555556</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="22">
         <v>43802.6181018519</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:11">
-      <c r="A54" s="3">
+      <c r="A54" s="16">
         <v>35677</v>
       </c>
-      <c r="B54" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="B54" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="16">
         <v>2.01912031449541e+20</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="17">
         <v>1</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="16">
         <v>228</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="16">
         <v>228</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="9">
+      <c r="G54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="22">
         <v>43802.6180555556</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="22">
         <v>43802.6179513889</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:11">
-      <c r="A55" s="3">
+      <c r="A55" s="16">
         <v>35676</v>
       </c>
-      <c r="B55" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="B55" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="16">
         <v>2.01912031449431e+20</v>
       </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="D55" s="17">
+        <v>2</v>
+      </c>
+      <c r="E55" s="16">
         <v>940</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="16">
         <v>940</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="9">
+      <c r="G55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="22">
         <v>43802.6173611111</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="22">
         <v>43802.6178356481</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:11">
-      <c r="A56" s="3">
+      <c r="A56" s="16">
         <v>35675</v>
       </c>
-      <c r="B56" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="B56" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="16">
         <v>2.01912031449311e+20</v>
       </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="D56" s="17">
+        <v>2</v>
+      </c>
+      <c r="E56" s="16">
         <v>278</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="16">
         <v>278</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="9">
+      <c r="G56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="22">
         <v>43802.6173611111</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="22">
         <v>43802.6176967593</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:11">
-      <c r="A57" s="3">
+      <c r="A57" s="16">
         <v>35674</v>
       </c>
-      <c r="B57" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="B57" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="16">
         <v>2.01912031449181e+20</v>
       </c>
-      <c r="D57" s="4">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="17">
+        <v>2</v>
+      </c>
+      <c r="E57" s="16">
         <v>298</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="16">
         <v>298</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="9">
+      <c r="G57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="22">
         <v>43802.6173611111</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="22">
         <v>43802.6175347222</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:11">
-      <c r="A58" s="3">
+      <c r="A58" s="16">
         <v>35673</v>
       </c>
-      <c r="B58" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="B58" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="16">
         <v>2.01912031449031e+20</v>
       </c>
-      <c r="D58" s="4">
-        <v>2</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="17">
+        <v>2</v>
+      </c>
+      <c r="E58" s="16">
         <v>148</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="16">
         <v>148</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="9">
+      <c r="G58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="22">
         <v>43802.6173611111</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="22">
         <v>43802.617349537</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:11">
-      <c r="A59" s="3">
+      <c r="A59" s="16">
         <v>35672</v>
       </c>
-      <c r="B59" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="B59" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="16">
         <v>2.01912031448491e+20</v>
       </c>
-      <c r="D59" s="4">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="17">
+        <v>2</v>
+      </c>
+      <c r="E59" s="16">
         <v>150</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="16">
         <v>150</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="9">
+      <c r="G59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="22">
         <v>43802.6166666667</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="22">
         <v>43802.6171990741</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:11">
-      <c r="A60" s="5">
+      <c r="A60" s="18">
         <v>35671</v>
       </c>
-      <c r="B60" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C60" s="5">
+      <c r="B60" s="18">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="18">
         <v>2.01912031448351e+20</v>
       </c>
-      <c r="D60" s="6">
-        <v>2</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="D60" s="19">
+        <v>2</v>
+      </c>
+      <c r="E60" s="18">
         <v>79</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="18">
         <v>79</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="12">
+      <c r="G60" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="24">
         <v>43802.6166666667</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="24">
         <v>43802.617037037</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="K60" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:11">
-      <c r="A61" s="1">
+      <c r="A61" s="14">
         <v>35670</v>
       </c>
-      <c r="B61" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="B61" s="14">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="14">
         <v>2.01912031448221e+20</v>
       </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="D61" s="15">
+        <v>2</v>
+      </c>
+      <c r="E61" s="14">
         <v>1204</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="14">
         <v>1204</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="7">
+      <c r="G61" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="20">
         <v>43802.6166666667</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="20">
         <v>43802.6168865741</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:11">
-      <c r="A62" s="3">
+      <c r="A62" s="16">
         <v>35669</v>
       </c>
-      <c r="B62" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B62" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="16">
         <v>2.01912031448081e+20</v>
       </c>
-      <c r="D62" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="17">
+        <v>2</v>
+      </c>
+      <c r="E62" s="16">
         <v>862</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="16">
         <v>862</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="9">
+      <c r="G62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="22">
         <v>43802.6166666667</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="22">
         <v>43802.616724537</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:11">
-      <c r="A63" s="3">
+      <c r="A63" s="16">
         <v>35668</v>
       </c>
-      <c r="B63" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B63" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="16">
         <v>2.01912031447561e+20</v>
       </c>
-      <c r="D63" s="4">
-        <v>2</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="D63" s="17">
+        <v>2</v>
+      </c>
+      <c r="E63" s="16">
         <v>360</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="16">
         <v>360</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="9">
+      <c r="G63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="22">
         <v>43802.6166666667</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="22">
         <v>43802.6157638889</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:11">
-      <c r="A64" s="3">
+      <c r="A64" s="16">
         <v>35667</v>
       </c>
-      <c r="B64" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="B64" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="16">
         <v>2.01912031446321e+20</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="17">
         <v>1</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="16">
         <v>22</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="16">
         <v>22</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="9">
+      <c r="G64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="22">
         <v>43802.6152777778</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="22">
         <v>43802.6155324074</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:11">
-      <c r="A65" s="3">
+      <c r="A65" s="16">
         <v>35666</v>
       </c>
-      <c r="B65" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="B65" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="16">
         <v>2.01912031446111e+20</v>
       </c>
-      <c r="D65" s="4">
-        <v>2</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="D65" s="17">
+        <v>2</v>
+      </c>
+      <c r="E65" s="16">
         <v>911</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="16">
         <v>911</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="9">
+      <c r="G65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="22">
         <v>43802.6152777778</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="22">
         <v>43802.6153472222</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:11">
-      <c r="A66" s="3">
+      <c r="A66" s="16">
         <v>35665</v>
       </c>
-      <c r="B66" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C66" s="3">
+      <c r="B66" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="16">
         <v>2.01912031445551e+20</v>
       </c>
-      <c r="D66" s="4">
-        <v>2</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="17">
+        <v>2</v>
+      </c>
+      <c r="E66" s="16">
         <v>709</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="16">
         <v>709</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="9">
+      <c r="G66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="22">
         <v>43802.6152777778</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="22">
         <v>43802.6151736111</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:11">
-      <c r="A67" s="3">
+      <c r="A67" s="16">
         <v>35664</v>
       </c>
-      <c r="B67" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="B67" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="16">
         <v>2.01912031445391e+20</v>
       </c>
-      <c r="D67" s="4">
-        <v>2</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="D67" s="17">
+        <v>2</v>
+      </c>
+      <c r="E67" s="16">
         <v>1176</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="16">
         <v>1176</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="9">
+      <c r="G67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="22">
         <v>43802.6145833333</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="22">
         <v>43802.6149768519</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:11">
-      <c r="A68" s="3">
+      <c r="A68" s="16">
         <v>35663</v>
       </c>
-      <c r="B68" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="B68" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="16">
         <v>2.01912031445231e+20</v>
       </c>
-      <c r="D68" s="4">
-        <v>2</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="D68" s="17">
+        <v>2</v>
+      </c>
+      <c r="E68" s="16">
         <v>689</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="16">
         <v>689</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="9">
+      <c r="G68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="22">
         <v>43802.6145833333</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="22">
         <v>43802.6148032407</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:11">
-      <c r="A69" s="3">
+      <c r="A69" s="16">
         <v>35662</v>
       </c>
-      <c r="B69" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C69" s="3">
+      <c r="B69" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="16">
         <v>2.01912031445111e+20</v>
       </c>
-      <c r="D69" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="D69" s="17">
+        <v>2</v>
+      </c>
+      <c r="E69" s="16">
         <v>219</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="16">
         <v>219</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="9">
+      <c r="G69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="22">
         <v>43802.6145833333</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="22">
         <v>43802.6146759259</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:11">
-      <c r="A70" s="3">
+      <c r="A70" s="16">
         <v>35661</v>
       </c>
-      <c r="B70" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C70" s="3">
+      <c r="B70" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="16">
         <v>2.01912031444571e+20</v>
       </c>
-      <c r="D70" s="4">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3">
+      <c r="D70" s="17">
+        <v>2</v>
+      </c>
+      <c r="E70" s="16">
         <v>695</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="16">
         <v>695</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="9">
+      <c r="G70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="22">
         <v>43802.6145833333</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="22">
         <v>43802.6144791667</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:11">
-      <c r="A71" s="3">
+      <c r="A71" s="16">
         <v>35660</v>
       </c>
-      <c r="B71" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C71" s="3">
+      <c r="B71" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="16">
         <v>2.01912031444401e+20</v>
       </c>
-      <c r="D71" s="4">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3">
+      <c r="D71" s="17">
+        <v>2</v>
+      </c>
+      <c r="E71" s="16">
         <v>746</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="16">
         <v>746</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="9">
+      <c r="G71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="22">
         <v>43802.6138888889</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J71" s="22">
         <v>43802.6142824074</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:11">
-      <c r="A72" s="3">
+      <c r="A72" s="16">
         <v>35659</v>
       </c>
-      <c r="B72" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C72" s="3">
+      <c r="B72" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="16">
         <v>2.01912031444221e+20</v>
       </c>
-      <c r="D72" s="4">
-        <v>2</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="17">
+        <v>2</v>
+      </c>
+      <c r="E72" s="16">
         <v>1040</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="16">
         <v>1040</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="9">
+      <c r="G72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="22">
         <v>43802.6138888889</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="22">
         <v>43802.6140972222</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:11">
-      <c r="A73" s="3">
+      <c r="A73" s="16">
         <v>35658</v>
       </c>
-      <c r="B73" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C73" s="3">
+      <c r="B73" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="16">
         <v>2.01912031444061e+20</v>
       </c>
-      <c r="D73" s="4">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="D73" s="17">
+        <v>2</v>
+      </c>
+      <c r="E73" s="16">
         <v>57</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="16">
         <v>57</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="9">
+      <c r="G73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="22">
         <v>43802.6138888889</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="22">
         <v>43802.6139351852</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:11">
-      <c r="A74" s="3">
+      <c r="A74" s="16">
         <v>35657</v>
       </c>
-      <c r="B74" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C74" s="3">
+      <c r="B74" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="16">
         <v>2.01912031443541e+20</v>
       </c>
-      <c r="D74" s="4">
-        <v>2</v>
-      </c>
-      <c r="E74" s="3">
+      <c r="D74" s="17">
+        <v>2</v>
+      </c>
+      <c r="E74" s="16">
         <v>254</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="16">
         <v>254</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="9">
+      <c r="G74" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="22">
         <v>43802.6138888889</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="22">
         <v>43802.6137384259</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K74" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:11">
-      <c r="A75" s="3">
+      <c r="A75" s="16">
         <v>35656</v>
       </c>
-      <c r="B75" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C75" s="3">
+      <c r="B75" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="16">
         <v>2.01912031443361e+20</v>
       </c>
-      <c r="D75" s="4">
-        <v>2</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="D75" s="17">
+        <v>2</v>
+      </c>
+      <c r="E75" s="16">
         <v>843</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="16">
         <v>843</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="9">
+      <c r="G75" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="22">
         <v>43802.6131944444</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="22">
         <v>43802.6135763889</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:11">
-      <c r="A76" s="3">
+      <c r="A76" s="16">
         <v>35655</v>
       </c>
-      <c r="B76" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="B76" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="16">
         <v>2.01912031443251e+20</v>
       </c>
-      <c r="D76" s="4">
-        <v>2</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="D76" s="17">
+        <v>2</v>
+      </c>
+      <c r="E76" s="16">
         <v>1202</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="16">
         <v>1202</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="9">
+      <c r="G76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="22">
         <v>43802.6131944444</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="22">
         <v>43802.6134490741</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:11">
-      <c r="A77" s="3">
+      <c r="A77" s="16">
         <v>35654</v>
       </c>
-      <c r="B77" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C77" s="3">
+      <c r="B77" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="16">
         <v>2.01912031443101e+20</v>
       </c>
-      <c r="D77" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3">
+      <c r="D77" s="17">
+        <v>2</v>
+      </c>
+      <c r="E77" s="16">
         <v>514</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="16">
         <v>514</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="9">
+      <c r="G77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="22">
         <v>43802.6131944444</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="22">
         <v>43802.6132638889</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:11">
-      <c r="A78" s="3">
+      <c r="A78" s="16">
         <v>35653</v>
       </c>
-      <c r="B78" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="B78" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="16">
         <v>2.01912031442561e+20</v>
       </c>
-      <c r="D78" s="4">
-        <v>2</v>
-      </c>
-      <c r="E78" s="3">
+      <c r="D78" s="17">
+        <v>2</v>
+      </c>
+      <c r="E78" s="16">
         <v>109</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="16">
         <v>109</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="9">
+      <c r="G78" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="22">
         <v>43802.6131944444</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J78" s="22">
         <v>43802.6130902778</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:11">
-      <c r="A79" s="3">
+      <c r="A79" s="16">
         <v>35652</v>
       </c>
-      <c r="B79" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="B79" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="16">
         <v>2.01912031442391e+20</v>
       </c>
-      <c r="D79" s="4">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3">
+      <c r="D79" s="17">
+        <v>2</v>
+      </c>
+      <c r="E79" s="16">
         <v>148</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="16">
         <v>148</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="9">
+      <c r="G79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="22">
         <v>43802.6125</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="22">
         <v>43802.6129166667</v>
       </c>
-      <c r="K79" s="10" t="s">
+      <c r="K79" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:11">
-      <c r="A80" s="5">
+      <c r="A80" s="18">
         <v>35651</v>
       </c>
-      <c r="B80" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C80" s="5">
+      <c r="B80" s="18">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="18">
         <v>2.01912031442291e+20</v>
       </c>
-      <c r="D80" s="6">
-        <v>2</v>
-      </c>
-      <c r="E80" s="5">
+      <c r="D80" s="19">
+        <v>2</v>
+      </c>
+      <c r="E80" s="18">
         <v>609</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="18">
         <v>609</v>
       </c>
-      <c r="G80" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="12">
+      <c r="G80" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="24">
         <v>43802.6125</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="24">
         <v>43802.6127430556</v>
       </c>
-      <c r="K80" s="13" t="s">
+      <c r="K80" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:11">
-      <c r="A81" s="1">
+      <c r="A81" s="14">
         <v>35650</v>
       </c>
-      <c r="B81" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C81" s="1">
+      <c r="B81" s="14">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="14">
         <v>2.01912031442131e+20</v>
       </c>
-      <c r="D81" s="2">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1">
+      <c r="D81" s="15">
+        <v>2</v>
+      </c>
+      <c r="E81" s="14">
         <v>533</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="14">
         <v>533</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="7">
+      <c r="G81" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="20">
         <v>43802.6125</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="20">
         <v>43802.6125925926</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:11">
-      <c r="A82" s="3">
+      <c r="A82" s="16">
         <v>35649</v>
       </c>
-      <c r="B82" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C82" s="3">
+      <c r="B82" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="16">
         <v>2.01912031441561e+20</v>
       </c>
-      <c r="D82" s="4">
-        <v>2</v>
-      </c>
-      <c r="E82" s="3">
+      <c r="D82" s="17">
+        <v>2</v>
+      </c>
+      <c r="E82" s="16">
         <v>76</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="16">
         <v>76</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="9">
+      <c r="G82" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="22">
         <v>43802.6125</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J82" s="22">
         <v>43802.6123842593</v>
       </c>
-      <c r="K82" s="10" t="s">
+      <c r="K82" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="83" ht="15" spans="1:11">
-      <c r="A83" s="3">
+      <c r="A83" s="16">
         <v>35648</v>
       </c>
-      <c r="B83" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="B83" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="16">
         <v>2.01912031441371e+20</v>
       </c>
-      <c r="D83" s="4">
-        <v>2</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="17">
+        <v>2</v>
+      </c>
+      <c r="E83" s="16">
         <v>308</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="16">
         <v>308</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="9">
+      <c r="G83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="22">
         <v>43802.6118055556</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="22">
         <v>43802.6121875</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="K83" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:11">
-      <c r="A84" s="3">
+      <c r="A84" s="16">
         <v>35647</v>
       </c>
-      <c r="B84" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C84" s="3">
+      <c r="B84" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C84" s="16">
         <v>2.01912031441251e+20</v>
       </c>
-      <c r="D84" s="4">
-        <v>2</v>
-      </c>
-      <c r="E84" s="3">
+      <c r="D84" s="17">
+        <v>2</v>
+      </c>
+      <c r="E84" s="16">
         <v>355</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="16">
         <v>355</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="9">
+      <c r="G84" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="22">
         <v>43802.6118055556</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J84" s="22">
         <v>43802.6120486111</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="K84" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:11">
-      <c r="A85" s="3">
+      <c r="A85" s="16">
         <v>35646</v>
       </c>
-      <c r="B85" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C85" s="3">
+      <c r="B85" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C85" s="16">
         <v>2.01912031441141e+20</v>
       </c>
-      <c r="D85" s="4">
-        <v>2</v>
-      </c>
-      <c r="E85" s="3">
+      <c r="D85" s="17">
+        <v>2</v>
+      </c>
+      <c r="E85" s="16">
         <v>108</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="16">
         <v>108</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="9">
+      <c r="G85" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="22">
         <v>43802.6118055556</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="22">
         <v>43802.6119328704</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="K85" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:11">
-      <c r="A86" s="3">
+      <c r="A86" s="16">
         <v>35645</v>
       </c>
-      <c r="B86" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C86" s="3">
+      <c r="B86" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C86" s="16">
         <v>2.01912031441041e+20</v>
       </c>
-      <c r="D86" s="4">
-        <v>2</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="D86" s="17">
+        <v>2</v>
+      </c>
+      <c r="E86" s="16">
         <v>189.9</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="16">
         <v>189.9</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="9">
+      <c r="G86" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="22">
         <v>43802.6118055556</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J86" s="22">
         <v>43802.6118171296</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:11">
-      <c r="A87" s="3">
+      <c r="A87" s="16">
         <v>35644</v>
       </c>
-      <c r="B87" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C87" s="3">
+      <c r="B87" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C87" s="16">
         <v>2.01912031440521e+20</v>
       </c>
-      <c r="D87" s="4">
-        <v>2</v>
-      </c>
-      <c r="E87" s="3">
+      <c r="D87" s="17">
+        <v>2</v>
+      </c>
+      <c r="E87" s="16">
         <v>507</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="16">
         <v>507</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="9">
+      <c r="G87" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="22">
         <v>43802.6111111111</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="22">
         <v>43802.6026041667</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="K87" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:11">
-      <c r="A88" s="3">
+      <c r="A88" s="16">
         <v>35643</v>
       </c>
-      <c r="B88" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C88" s="3">
+      <c r="B88" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C88" s="16">
         <v>2.01912031427371e+20</v>
       </c>
-      <c r="D88" s="4">
-        <v>2</v>
-      </c>
-      <c r="E88" s="3">
+      <c r="D88" s="17">
+        <v>2</v>
+      </c>
+      <c r="E88" s="16">
         <v>258</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="16">
         <v>258</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="9">
+      <c r="G88" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="22">
         <v>43802.6020833333</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J88" s="22">
         <v>43802.6024305556</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="K88" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:11">
-      <c r="A89" s="3">
+      <c r="A89" s="16">
         <v>35642</v>
       </c>
-      <c r="B89" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="B89" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C89" s="16">
         <v>2.01912031427221e+20</v>
       </c>
-      <c r="D89" s="4">
-        <v>2</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="17">
+        <v>2</v>
+      </c>
+      <c r="E89" s="16">
         <v>199</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="16">
         <v>199</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="9">
+      <c r="G89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="22">
         <v>43802.6020833333</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J89" s="22">
         <v>43802.6023032407</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:11">
-      <c r="A90" s="3">
+      <c r="A90" s="16">
         <v>35641</v>
       </c>
-      <c r="B90" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="B90" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C90" s="16">
         <v>2.01912031427101e+20</v>
       </c>
-      <c r="D90" s="4">
-        <v>2</v>
-      </c>
-      <c r="E90" s="3">
+      <c r="D90" s="17">
+        <v>2</v>
+      </c>
+      <c r="E90" s="16">
         <v>288</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="16">
         <v>288</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="9">
+      <c r="G90" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="22">
         <v>43802.6020833333</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J90" s="22">
         <v>43802.6021643519</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:11">
-      <c r="A91" s="3">
+      <c r="A91" s="16">
         <v>35640</v>
       </c>
-      <c r="B91" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="B91" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C91" s="16">
         <v>2.01912031426581e+20</v>
       </c>
-      <c r="D91" s="4">
-        <v>2</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="17">
+        <v>2</v>
+      </c>
+      <c r="E91" s="16">
         <v>252</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="16">
         <v>252</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="9">
+      <c r="G91" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="22">
         <v>43802.6020833333</v>
       </c>
-      <c r="J91" s="9">
+      <c r="J91" s="22">
         <v>43802.602025463</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K91" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:11">
-      <c r="A92" s="3">
+      <c r="A92" s="16">
         <v>35639</v>
       </c>
-      <c r="B92" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="B92" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C92" s="16">
         <v>2.01912031426471e+20</v>
       </c>
-      <c r="D92" s="4">
-        <v>2</v>
-      </c>
-      <c r="E92" s="3">
+      <c r="D92" s="17">
+        <v>2</v>
+      </c>
+      <c r="E92" s="16">
         <v>138</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="16">
         <v>138</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="9">
+      <c r="G92" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="22">
         <v>43802.6013888889</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J92" s="22">
         <v>43802.6018865741</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="93" ht="15" spans="1:11">
-      <c r="A93" s="3">
+      <c r="A93" s="16">
         <v>35638</v>
       </c>
-      <c r="B93" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C93" s="3">
+      <c r="B93" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C93" s="16">
         <v>2.01912031426351e+20</v>
       </c>
-      <c r="D93" s="4">
-        <v>2</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="D93" s="17">
+        <v>2</v>
+      </c>
+      <c r="E93" s="16">
         <v>847</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="16">
         <v>847</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" s="9">
+      <c r="G93" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="22">
         <v>43802.6013888889</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J93" s="22">
         <v>43802.6017592593</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="K93" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:11">
-      <c r="A94" s="3">
+      <c r="A94" s="16">
         <v>35637</v>
       </c>
-      <c r="B94" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="B94" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C94" s="16">
         <v>2.01912031426241e+20</v>
       </c>
-      <c r="D94" s="4">
-        <v>2</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="17">
+        <v>2</v>
+      </c>
+      <c r="E94" s="16">
         <v>117</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="16">
         <v>117</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="9">
+      <c r="G94" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="22">
         <v>43802.6013888889</v>
       </c>
-      <c r="J94" s="9">
+      <c r="J94" s="22">
         <v>43802.6016087963</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="K94" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:11">
-      <c r="A95" s="3">
+      <c r="A95" s="16">
         <v>35636</v>
       </c>
-      <c r="B95" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C95" s="3">
+      <c r="B95" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C95" s="16">
         <v>2.01912031426101e+20</v>
       </c>
-      <c r="D95" s="4">
-        <v>2</v>
-      </c>
-      <c r="E95" s="3">
+      <c r="D95" s="17">
+        <v>2</v>
+      </c>
+      <c r="E95" s="16">
         <v>578</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="16">
         <v>578</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="9">
+      <c r="G95" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="22">
         <v>43802.6013888889</v>
       </c>
-      <c r="J95" s="9">
+      <c r="J95" s="22">
         <v>43802.5975925926</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="K95" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:11">
-      <c r="A96" s="3">
+      <c r="A96" s="16">
         <v>35635</v>
       </c>
-      <c r="B96" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C96" s="3">
+      <c r="B96" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C96" s="16">
         <v>2.01912031420251e+20</v>
       </c>
-      <c r="D96" s="4">
-        <v>2</v>
-      </c>
-      <c r="E96" s="3">
+      <c r="D96" s="17">
+        <v>2</v>
+      </c>
+      <c r="E96" s="16">
         <v>323</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="16">
         <v>323</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="9">
+      <c r="G96" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="22">
         <v>43802.5972222222</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="22">
         <v>43802.5974652778</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="K96" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:11">
-      <c r="A97" s="3">
+      <c r="A97" s="16">
         <v>35634</v>
       </c>
-      <c r="B97" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C97" s="3">
+      <c r="B97" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C97" s="16">
         <v>2.01912031420141e+20</v>
       </c>
-      <c r="D97" s="4">
-        <v>2</v>
-      </c>
-      <c r="E97" s="3">
+      <c r="D97" s="17">
+        <v>2</v>
+      </c>
+      <c r="E97" s="16">
         <v>124</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="16">
         <v>124</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="9">
+      <c r="G97" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="22">
         <v>43802.5972222222</v>
       </c>
-      <c r="J97" s="9">
+      <c r="J97" s="22">
         <v>43802.597337963</v>
       </c>
-      <c r="K97" s="10" t="s">
+      <c r="K97" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:11">
-      <c r="A98" s="3">
+      <c r="A98" s="16">
         <v>35633</v>
       </c>
-      <c r="B98" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="B98" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C98" s="16">
         <v>2.01912031420021e+20</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="17">
         <v>1</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="16">
         <v>90</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="16">
         <v>90</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="9">
+      <c r="G98" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="22">
         <v>43802.5972222222</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="22">
         <v>43802.5963078704</v>
       </c>
-      <c r="K98" s="10" t="s">
+      <c r="K98" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:11">
-      <c r="A99" s="3">
+      <c r="A99" s="16">
         <v>35632</v>
       </c>
-      <c r="B99" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="B99" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C99" s="16">
         <v>2.01912031418341e+20</v>
       </c>
-      <c r="D99" s="4">
-        <v>2</v>
-      </c>
-      <c r="E99" s="3">
+      <c r="D99" s="17">
+        <v>2</v>
+      </c>
+      <c r="E99" s="16">
         <v>457.9</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="16">
         <v>457.9</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="9">
+      <c r="G99" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="22">
         <v>43802.5958333333</v>
       </c>
-      <c r="J99" s="9">
+      <c r="J99" s="22">
         <v>43802.5961805556</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="K99" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" ht="15" spans="1:11">
-      <c r="A100" s="5">
+      <c r="A100" s="18">
         <v>35631</v>
       </c>
-      <c r="B100" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C100" s="5">
+      <c r="B100" s="18">
+        <v>15874</v>
+      </c>
+      <c r="C100" s="18">
         <v>2.01912031418231e+20</v>
       </c>
-      <c r="D100" s="6">
-        <v>2</v>
-      </c>
-      <c r="E100" s="5">
+      <c r="D100" s="19">
+        <v>2</v>
+      </c>
+      <c r="E100" s="18">
         <v>543</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="18">
         <v>543</v>
       </c>
-      <c r="G100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="12">
+      <c r="G100" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="24">
         <v>43802.5958333333</v>
       </c>
-      <c r="J100" s="12">
+      <c r="J100" s="24">
         <v>43802.5960532407</v>
       </c>
-      <c r="K100" s="13" t="s">
+      <c r="K100" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="101" ht="15" spans="1:11">
-      <c r="A101" s="1">
+      <c r="A101" s="14">
         <v>35630</v>
       </c>
-      <c r="B101" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C101" s="1">
+      <c r="B101" s="14">
+        <v>15874</v>
+      </c>
+      <c r="C101" s="14">
         <v>2.01912031418121e+20</v>
       </c>
-      <c r="D101" s="2">
-        <v>2</v>
-      </c>
-      <c r="E101" s="1">
+      <c r="D101" s="15">
+        <v>2</v>
+      </c>
+      <c r="E101" s="14">
         <v>627</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="14">
         <v>627</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="7">
+      <c r="G101" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="20">
         <v>43802.5958333333</v>
       </c>
-      <c r="J101" s="7">
+      <c r="J101" s="20">
         <v>43802.5959143518</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:11">
-      <c r="A102" s="3">
+      <c r="A102" s="16">
         <v>35629</v>
       </c>
-      <c r="B102" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C102" s="3">
+      <c r="B102" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C102" s="16">
         <v>2.01912031417591e+20</v>
       </c>
-      <c r="D102" s="4">
-        <v>2</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="17">
+        <v>2</v>
+      </c>
+      <c r="E102" s="16">
         <v>748</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="16">
         <v>748</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="9">
+      <c r="G102" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="22">
         <v>43802.5958333333</v>
       </c>
-      <c r="J102" s="9">
+      <c r="J102" s="22">
         <v>43802.595787037</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="K102" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="103" ht="15" spans="1:11">
-      <c r="A103" s="3">
+      <c r="A103" s="16">
         <v>35628</v>
       </c>
-      <c r="B103" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C103" s="3">
+      <c r="B103" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C103" s="16">
         <v>2.01912031417481e+20</v>
       </c>
-      <c r="D103" s="4">
-        <v>2</v>
-      </c>
-      <c r="E103" s="3">
+      <c r="D103" s="17">
+        <v>2</v>
+      </c>
+      <c r="E103" s="16">
         <v>626</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="16">
         <v>626</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="9">
+      <c r="G103" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="22">
         <v>43802.5951388889</v>
       </c>
-      <c r="J103" s="9">
+      <c r="J103" s="22">
         <v>43802.5956481481</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="K103" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:11">
-      <c r="A104" s="3">
+      <c r="A104" s="16">
         <v>35627</v>
       </c>
-      <c r="B104" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="B104" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C104" s="16">
         <v>2.01912031417371e+20</v>
       </c>
-      <c r="D104" s="4">
-        <v>2</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="D104" s="17">
+        <v>2</v>
+      </c>
+      <c r="E104" s="16">
         <v>349.9</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="16">
         <v>349.9</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="9">
+      <c r="G104" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="22">
         <v>43802.5951388889</v>
       </c>
-      <c r="J104" s="9">
+      <c r="J104" s="22">
         <v>43802.595462963</v>
       </c>
-      <c r="K104" s="10" t="s">
+      <c r="K104" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:11">
-      <c r="A105" s="3">
+      <c r="A105" s="16">
         <v>35626</v>
       </c>
-      <c r="B105" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C105" s="3">
+      <c r="B105" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C105" s="16">
         <v>2.01912031417201e+20</v>
       </c>
-      <c r="D105" s="4">
-        <v>2</v>
-      </c>
-      <c r="E105" s="3">
+      <c r="D105" s="17">
+        <v>2</v>
+      </c>
+      <c r="E105" s="16">
         <v>513</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="16">
         <v>513</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="9">
+      <c r="G105" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="22">
         <v>43802.5951388889</v>
       </c>
-      <c r="J105" s="9">
+      <c r="J105" s="22">
         <v>43802.5953356481</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="K105" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:11">
-      <c r="A106" s="3">
+      <c r="A106" s="16">
         <v>35625</v>
       </c>
-      <c r="B106" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C106" s="3">
+      <c r="B106" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C106" s="16">
         <v>2.01912031417091e+20</v>
       </c>
-      <c r="D106" s="4">
-        <v>2</v>
-      </c>
-      <c r="E106" s="3">
+      <c r="D106" s="17">
+        <v>2</v>
+      </c>
+      <c r="E106" s="16">
         <v>245</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="16">
         <v>245</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="9">
+      <c r="G106" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="22">
         <v>43802.5951388889</v>
       </c>
-      <c r="J106" s="9">
+      <c r="J106" s="22">
         <v>43802.5951851852</v>
       </c>
-      <c r="K106" s="10" t="s">
+      <c r="K106" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="107" ht="15" spans="1:11">
-      <c r="A107" s="3">
+      <c r="A107" s="16">
         <v>35624</v>
       </c>
-      <c r="B107" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C107" s="3">
+      <c r="B107" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C107" s="16">
         <v>2.01912031416561e+20</v>
       </c>
-      <c r="D107" s="4">
-        <v>2</v>
-      </c>
-      <c r="E107" s="3">
+      <c r="D107" s="17">
+        <v>2</v>
+      </c>
+      <c r="E107" s="16">
         <v>511</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="16">
         <v>511</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107" s="9">
+      <c r="G107" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="22">
         <v>43802.5951388889</v>
       </c>
-      <c r="J107" s="9">
+      <c r="J107" s="22">
         <v>43802.5950462963</v>
       </c>
-      <c r="K107" s="10" t="s">
+      <c r="K107" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:11">
-      <c r="A108" s="3">
+      <c r="A108" s="16">
         <v>35623</v>
       </c>
-      <c r="B108" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="B108" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C108" s="16">
         <v>2.01912031416451e+20</v>
       </c>
-      <c r="D108" s="4">
-        <v>2</v>
-      </c>
-      <c r="E108" s="3">
+      <c r="D108" s="17">
+        <v>2</v>
+      </c>
+      <c r="E108" s="16">
         <v>640</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="16">
         <v>640</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108" s="9">
+      <c r="G108" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="22">
         <v>43802.5944444444</v>
       </c>
-      <c r="J108" s="9">
+      <c r="J108" s="22">
         <v>43802.5948611111</v>
       </c>
-      <c r="K108" s="10" t="s">
+      <c r="K108" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="109" ht="15" spans="1:11">
-      <c r="A109" s="3">
+      <c r="A109" s="16">
         <v>35622</v>
       </c>
-      <c r="B109" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C109" s="3">
+      <c r="B109" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C109" s="16">
         <v>2.01912031416291e+20</v>
       </c>
-      <c r="D109" s="4">
-        <v>2</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="D109" s="17">
+        <v>2</v>
+      </c>
+      <c r="E109" s="16">
         <v>1565</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="16">
         <v>1565</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="9">
+      <c r="G109" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="22">
         <v>43802.5944444444</v>
       </c>
-      <c r="J109" s="9">
+      <c r="J109" s="22">
         <v>43802.5947337963</v>
       </c>
-      <c r="K109" s="10" t="s">
+      <c r="K109" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:11">
-      <c r="A110" s="3">
+      <c r="A110" s="16">
         <v>35621</v>
       </c>
-      <c r="B110" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C110" s="3">
+      <c r="B110" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C110" s="16">
         <v>2.01912031416181e+20</v>
       </c>
-      <c r="D110" s="4">
-        <v>2</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="D110" s="17">
+        <v>2</v>
+      </c>
+      <c r="E110" s="16">
         <v>745</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="16">
         <v>745</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110" s="9">
+      <c r="G110" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="22">
         <v>43802.5944444444</v>
       </c>
-      <c r="J110" s="9">
+      <c r="J110" s="22">
         <v>43802.5946064815</v>
       </c>
-      <c r="K110" s="10" t="s">
+      <c r="K110" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="111" ht="15" spans="1:11">
-      <c r="A111" s="3">
+      <c r="A111" s="16">
         <v>35620</v>
       </c>
-      <c r="B111" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C111" s="3">
+      <c r="B111" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C111" s="16">
         <v>2.01912031416031e+20</v>
       </c>
-      <c r="D111" s="4">
-        <v>2</v>
-      </c>
-      <c r="E111" s="3">
+      <c r="D111" s="17">
+        <v>2</v>
+      </c>
+      <c r="E111" s="16">
         <v>267.9</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="16">
         <v>267.9</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111" s="9">
+      <c r="G111" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="22">
         <v>43802.5944444444</v>
       </c>
-      <c r="J111" s="9">
+      <c r="J111" s="22">
         <v>43802.5865856481</v>
       </c>
-      <c r="K111" s="10" t="s">
+      <c r="K111" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:11">
-      <c r="A112" s="3">
+      <c r="A112" s="16">
         <v>35619</v>
       </c>
-      <c r="B112" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C112" s="3">
+      <c r="B112" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C112" s="16">
         <v>2.01912031404301e+20</v>
       </c>
-      <c r="D112" s="4">
-        <v>2</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="D112" s="17">
+        <v>2</v>
+      </c>
+      <c r="E112" s="16">
         <v>327.9</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="16">
         <v>327.9</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="9">
+      <c r="G112" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="22">
         <v>43802.5861111111</v>
       </c>
-      <c r="J112" s="9">
+      <c r="J112" s="22">
         <v>43802.586400463</v>
       </c>
-      <c r="K112" s="10" t="s">
+      <c r="K112" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="113" ht="15" spans="1:11">
-      <c r="A113" s="3">
+      <c r="A113" s="16">
         <v>35618</v>
       </c>
-      <c r="B113" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C113" s="3">
+      <c r="B113" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C113" s="16">
         <v>2.01912031404111e+20</v>
       </c>
-      <c r="D113" s="4">
-        <v>2</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="D113" s="17">
+        <v>2</v>
+      </c>
+      <c r="E113" s="16">
         <v>589.9</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="16">
         <v>589.9</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="9">
+      <c r="G113" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="22">
         <v>43802.5861111111</v>
       </c>
-      <c r="J113" s="9">
+      <c r="J113" s="22">
         <v>43802.5861342593</v>
       </c>
-      <c r="K113" s="10" t="s">
+      <c r="K113" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="114" ht="15" spans="1:11">
-      <c r="A114" s="3">
+      <c r="A114" s="16">
         <v>35617</v>
       </c>
-      <c r="B114" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C114" s="3">
+      <c r="B114" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C114" s="16">
         <v>2.01912031403521e+20</v>
       </c>
-      <c r="D114" s="4">
-        <v>2</v>
-      </c>
-      <c r="E114" s="3">
+      <c r="D114" s="17">
+        <v>2</v>
+      </c>
+      <c r="E114" s="16">
         <v>259</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="16">
         <v>259</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="9">
+      <c r="G114" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="22">
         <v>43802.5854166667</v>
       </c>
-      <c r="J114" s="9">
+      <c r="J114" s="22">
         <v>43802.5859953704</v>
       </c>
-      <c r="K114" s="10" t="s">
+      <c r="K114" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="115" ht="15" spans="1:11">
-      <c r="A115" s="3">
+      <c r="A115" s="16">
         <v>35616</v>
       </c>
-      <c r="B115" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C115" s="3">
+      <c r="B115" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C115" s="16">
         <v>2.01912031403361e+20</v>
       </c>
-      <c r="D115" s="4">
-        <v>2</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="D115" s="17">
+        <v>2</v>
+      </c>
+      <c r="E115" s="16">
         <v>48</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="16">
         <v>48</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115" s="9">
+      <c r="G115" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="22">
         <v>43802.5854166667</v>
       </c>
-      <c r="J115" s="9">
+      <c r="J115" s="22">
         <v>43802.5857407407</v>
       </c>
-      <c r="K115" s="10" t="s">
+      <c r="K115" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" ht="15" spans="1:11">
-      <c r="A116" s="3">
+      <c r="A116" s="16">
         <v>35615</v>
       </c>
-      <c r="B116" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C116" s="3">
+      <c r="B116" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C116" s="16">
         <v>2.01912031403121e+20</v>
       </c>
-      <c r="D116" s="4">
-        <v>2</v>
-      </c>
-      <c r="E116" s="3">
+      <c r="D116" s="17">
+        <v>2</v>
+      </c>
+      <c r="E116" s="16">
         <v>107</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="16">
         <v>107</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" s="9">
+      <c r="G116" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="22">
         <v>43802.5854166667</v>
       </c>
-      <c r="J116" s="9">
+      <c r="J116" s="22">
         <v>43802.5853472222</v>
       </c>
-      <c r="K116" s="10" t="s">
+      <c r="K116" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:11">
-      <c r="A117" s="3">
+      <c r="A117" s="16">
         <v>35614</v>
       </c>
-      <c r="B117" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C117" s="3">
+      <c r="B117" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C117" s="16">
         <v>2.01912031402411e+20</v>
       </c>
-      <c r="D117" s="4">
-        <v>2</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="D117" s="17">
+        <v>2</v>
+      </c>
+      <c r="E117" s="16">
         <v>768</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="16">
         <v>768</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="9">
+      <c r="G117" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="22">
         <v>43802.5847222222</v>
       </c>
-      <c r="J117" s="9">
+      <c r="J117" s="22">
         <v>43802.585162037</v>
       </c>
-      <c r="K117" s="10" t="s">
+      <c r="K117" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:11">
-      <c r="A118" s="3">
+      <c r="A118" s="16">
         <v>35613</v>
       </c>
-      <c r="B118" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C118" s="3">
+      <c r="B118" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C118" s="16">
         <v>2.01912031402281e+20</v>
       </c>
-      <c r="D118" s="4">
-        <v>2</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="D118" s="17">
+        <v>2</v>
+      </c>
+      <c r="E118" s="16">
         <v>1259</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="16">
         <v>1259</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="9">
+      <c r="G118" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="22">
         <v>43802.5847222222</v>
       </c>
-      <c r="J118" s="9">
+      <c r="J118" s="22">
         <v>43802.5850115741</v>
       </c>
-      <c r="K118" s="10" t="s">
+      <c r="K118" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="119" ht="15" spans="1:11">
-      <c r="A119" s="3">
+      <c r="A119" s="16">
         <v>35612</v>
       </c>
-      <c r="B119" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C119" s="3">
+      <c r="B119" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C119" s="16">
         <v>2.01912031402161e+20</v>
       </c>
-      <c r="D119" s="4">
-        <v>2</v>
-      </c>
-      <c r="E119" s="3">
+      <c r="D119" s="17">
+        <v>2</v>
+      </c>
+      <c r="E119" s="16">
         <v>124</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="16">
         <v>124</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" s="9">
+      <c r="G119" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="22">
         <v>43802.5847222222</v>
       </c>
-      <c r="J119" s="9">
+      <c r="J119" s="22">
         <v>43802.5792939815</v>
       </c>
-      <c r="K119" s="10" t="s">
+      <c r="K119" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:11">
-      <c r="A120" s="5">
+      <c r="A120" s="18">
         <v>35611</v>
       </c>
-      <c r="B120" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C120" s="5">
+      <c r="B120" s="18">
+        <v>15874</v>
+      </c>
+      <c r="C120" s="18">
         <v>2.01912031354041e+20</v>
       </c>
-      <c r="D120" s="6">
-        <v>2</v>
-      </c>
-      <c r="E120" s="5">
+      <c r="D120" s="19">
+        <v>2</v>
+      </c>
+      <c r="E120" s="18">
         <v>248</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="18">
         <v>248</v>
       </c>
-      <c r="G120" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" s="12">
+      <c r="G120" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="24">
         <v>43802.5791666667</v>
       </c>
-      <c r="J120" s="12">
+      <c r="J120" s="24">
         <v>43802.5791550926</v>
       </c>
-      <c r="K120" s="13" t="s">
+      <c r="K120" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:11">
-      <c r="A121" s="1">
+      <c r="A121" s="14">
         <v>35610</v>
       </c>
-      <c r="B121" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C121" s="1">
+      <c r="B121" s="14">
+        <v>15874</v>
+      </c>
+      <c r="C121" s="14">
         <v>2.01912031353521e+20</v>
       </c>
-      <c r="D121" s="2">
-        <v>2</v>
-      </c>
-      <c r="E121" s="1">
+      <c r="D121" s="15">
+        <v>2</v>
+      </c>
+      <c r="E121" s="14">
         <v>174</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="14">
         <v>174</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="7">
+      <c r="G121" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="20">
         <v>43802.5784722222</v>
       </c>
-      <c r="J121" s="7">
+      <c r="J121" s="20">
         <v>43802.5790393519</v>
       </c>
-      <c r="K121" s="8" t="s">
+      <c r="K121" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="122" ht="15" spans="1:11">
-      <c r="A122" s="3">
+      <c r="A122" s="16">
         <v>35609</v>
       </c>
-      <c r="B122" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C122" s="3">
+      <c r="B122" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C122" s="16">
         <v>2.01912031353391e+20</v>
       </c>
-      <c r="D122" s="4">
-        <v>2</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D122" s="17">
+        <v>2</v>
+      </c>
+      <c r="E122" s="16">
         <v>251</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="16">
         <v>251</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="9">
+      <c r="G122" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="22">
         <v>43802.5784722222</v>
       </c>
-      <c r="J122" s="9">
+      <c r="J122" s="22">
         <v>43802.5788541667</v>
       </c>
-      <c r="K122" s="10" t="s">
+      <c r="K122" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="123" ht="15" spans="1:11">
-      <c r="A123" s="3">
+      <c r="A123" s="16">
         <v>35608</v>
       </c>
-      <c r="B123" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C123" s="3">
+      <c r="B123" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C123" s="16">
         <v>2.01912031353251e+20</v>
       </c>
-      <c r="D123" s="4">
-        <v>2</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="D123" s="17">
+        <v>2</v>
+      </c>
+      <c r="E123" s="16">
         <v>528</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="16">
         <v>528</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123" s="9">
+      <c r="G123" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="22">
         <v>43802.5784722222</v>
       </c>
-      <c r="J123" s="9">
+      <c r="J123" s="22">
         <v>43802.5787037037</v>
       </c>
-      <c r="K123" s="10" t="s">
+      <c r="K123" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:11">
-      <c r="A124" s="3">
+      <c r="A124" s="16">
         <v>35607</v>
       </c>
-      <c r="B124" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C124" s="3">
+      <c r="B124" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C124" s="16">
         <v>2.01912031353121e+20</v>
       </c>
-      <c r="D124" s="4">
-        <v>2</v>
-      </c>
-      <c r="E124" s="3">
+      <c r="D124" s="17">
+        <v>2</v>
+      </c>
+      <c r="E124" s="16">
         <v>47</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="16">
         <v>47</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" s="9">
+      <c r="G124" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="22">
         <v>43802.5784722222</v>
       </c>
-      <c r="J124" s="9">
+      <c r="J124" s="22">
         <v>43802.5785763889</v>
       </c>
-      <c r="K124" s="10" t="s">
+      <c r="K124" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="125" ht="15" spans="1:11">
-      <c r="A125" s="5">
+      <c r="A125" s="18">
         <v>35606</v>
       </c>
-      <c r="B125" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C125" s="5">
+      <c r="B125" s="18">
+        <v>15874</v>
+      </c>
+      <c r="C125" s="18">
         <v>2.01912031352591e+20</v>
       </c>
-      <c r="D125" s="6">
-        <v>2</v>
-      </c>
-      <c r="E125" s="5">
+      <c r="D125" s="19">
+        <v>2</v>
+      </c>
+      <c r="E125" s="18">
         <v>445</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="18">
         <v>445</v>
       </c>
-      <c r="G125" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="12">
+      <c r="G125" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="24">
         <v>43802.5784722222</v>
       </c>
-      <c r="J125" s="12">
+      <c r="J125" s="24">
         <v>43802.5783680556</v>
       </c>
-      <c r="K125" s="13" t="s">
+      <c r="K125" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="126" ht="24" spans="1:11">
-      <c r="A126" s="1">
+      <c r="A126" s="14">
         <v>35758</v>
       </c>
-      <c r="B126" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C126" s="1">
+      <c r="B126" s="14">
+        <v>15874</v>
+      </c>
+      <c r="C126" s="14">
         <v>2.01912031926181e+20</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="15">
         <v>3</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="14">
         <v>855</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="14">
         <v>855</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" s="1" t="s">
+      <c r="G126" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="20">
         <v>43802.8097222222</v>
       </c>
-      <c r="J126" s="7">
+      <c r="J126" s="20">
         <v>43802.8099305556</v>
       </c>
-      <c r="K126" s="8" t="s">
-        <v>25</v>
+      <c r="K126" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="127" ht="24" spans="1:11">
-      <c r="A127" s="3">
+      <c r="A127" s="16">
         <v>35757</v>
       </c>
-      <c r="B127" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C127" s="3">
+      <c r="B127" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C127" s="16">
         <v>2.01912031925471e+20</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="17">
         <v>8</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="16">
         <v>397.3</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="16">
         <v>397.3</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" s="3" t="s">
+      <c r="G127" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I127" s="9">
+      <c r="I127" s="22">
         <v>43802.8090277778</v>
       </c>
-      <c r="J127" s="9">
+      <c r="J127" s="22">
         <v>43802.8095601852</v>
       </c>
-      <c r="K127" s="10" t="s">
-        <v>25</v>
+      <c r="K127" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="128" ht="24" spans="1:11">
-      <c r="A128" s="3">
+      <c r="A128" s="16">
         <v>35756</v>
       </c>
-      <c r="B128" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C128" s="3">
+      <c r="B128" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C128" s="16">
         <v>2.01912031925101e+20</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="17">
         <v>1</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="16">
         <v>660</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="16">
         <v>660</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="3" t="s">
+      <c r="G128" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I128" s="9">
+      <c r="I128" s="22">
         <v>43802.8090277778</v>
       </c>
-      <c r="J128" s="9">
+      <c r="J128" s="22">
         <v>43802.8091435185</v>
       </c>
-      <c r="K128" s="10" t="s">
-        <v>25</v>
+      <c r="K128" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="129" ht="24" spans="1:11">
-      <c r="A129" s="3">
+      <c r="A129" s="16">
         <v>35755</v>
       </c>
-      <c r="B129" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C129" s="3">
+      <c r="B129" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C129" s="16">
         <v>2.01912031924441e+20</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="17">
         <v>5</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="16">
         <v>345</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="16">
         <v>345</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="3" t="s">
+      <c r="G129" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I129" s="9">
+      <c r="I129" s="22">
         <v>43802.8083333333</v>
       </c>
-      <c r="J129" s="9">
+      <c r="J129" s="22">
         <v>43802.8088425926</v>
       </c>
-      <c r="K129" s="10" t="s">
-        <v>25</v>
+      <c r="K129" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="130" ht="24" spans="1:11">
-      <c r="A130" s="3">
+      <c r="A130" s="16">
         <v>35754</v>
       </c>
-      <c r="B130" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C130" s="3">
+      <c r="B130" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C130" s="16">
         <v>2.01912031922511e+20</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="17">
         <v>3</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="16">
         <v>636</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="16">
         <v>636</v>
       </c>
-      <c r="G130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" s="3" t="s">
+      <c r="G130" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I130" s="9">
+      <c r="I130" s="22">
         <v>43802.8069444444</v>
       </c>
-      <c r="J130" s="9">
+      <c r="J130" s="22">
         <v>43802.8075347222</v>
       </c>
-      <c r="K130" s="10" t="s">
-        <v>25</v>
+      <c r="K130" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="131" ht="24" spans="1:11">
-      <c r="A131" s="3">
+      <c r="A131" s="16">
         <v>35753</v>
       </c>
-      <c r="B131" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C131" s="3">
+      <c r="B131" s="16">
+        <v>15874</v>
+      </c>
+      <c r="C131" s="16">
         <v>2.01912031922301e+20</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="17">
         <v>1</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="16">
         <v>469</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="16">
         <v>469</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="3" t="s">
+      <c r="G131" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I131" s="9">
+      <c r="I131" s="22">
         <v>43802.8069444444</v>
       </c>
-      <c r="J131" s="9">
+      <c r="J131" s="22">
         <v>43802.8072916667</v>
       </c>
-      <c r="K131" s="10" t="s">
-        <v>25</v>
+      <c r="K131" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="132" ht="24" spans="1:11">
-      <c r="A132" s="5">
+      <c r="A132" s="18">
         <v>35752</v>
       </c>
-      <c r="B132" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C132" s="5">
+      <c r="B132" s="18">
+        <v>15874</v>
+      </c>
+      <c r="C132" s="18">
         <v>2.01912031922061e+20</v>
       </c>
-      <c r="D132" s="6">
-        <v>2</v>
-      </c>
-      <c r="E132" s="5">
+      <c r="D132" s="19">
+        <v>2</v>
+      </c>
+      <c r="E132" s="18">
         <v>740</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="18">
         <v>740</v>
       </c>
-      <c r="G132" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="5" t="s">
+      <c r="G132" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="24">
         <v>43802.8069444444</v>
       </c>
-      <c r="J132" s="12">
+      <c r="J132" s="24">
         <v>43802.8070023148</v>
       </c>
-      <c r="K132" s="13" t="s">
-        <v>25</v>
+      <c r="K132" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -15214,4 +15192,1389 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:11">
+      <c r="A1" s="1">
+        <v>35805</v>
+      </c>
+      <c r="B1" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2.01912041716451e+20</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>732</v>
+      </c>
+      <c r="F1" s="1">
+        <v>732</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J1" s="7">
+        <v>43803.7199421296</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:11">
+      <c r="A2" s="3">
+        <v>35804</v>
+      </c>
+      <c r="B2" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.01912041716361e+20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>238</v>
+      </c>
+      <c r="F2" s="3">
+        <v>238</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J2" s="9">
+        <v>43803.7198263889</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:11">
+      <c r="A3" s="3">
+        <v>35803</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.01912041716261e+20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>659</v>
+      </c>
+      <c r="F3" s="3">
+        <v>659</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J3" s="9">
+        <v>43803.7197106481</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:16">
+      <c r="A4" s="3">
+        <v>35802</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.01912041716151e+20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>126</v>
+      </c>
+      <c r="F4" s="3">
+        <v>126</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J4" s="9">
+        <v>43803.7195949074</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" ht="15" spans="1:16">
+      <c r="A5" s="3">
+        <v>35801</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.01912041716041e+20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>115</v>
+      </c>
+      <c r="F5" s="3">
+        <v>115</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J5" s="9">
+        <v>43803.7194675926</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="11">
+        <v>20000</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:16">
+      <c r="A6" s="3">
+        <v>35800</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.01912041715551e+20</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>495</v>
+      </c>
+      <c r="F6" s="3">
+        <v>495</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J6" s="9">
+        <v>43803.7193634259</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>20774</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" ht="15" spans="1:16">
+      <c r="A7" s="3">
+        <v>35799</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.01912041715451e+20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1154</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1154</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J7" s="9">
+        <v>43803.7192476852</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="11">
+        <v>204.76</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" ht="15" spans="1:11">
+      <c r="A8" s="3">
+        <v>35798</v>
+      </c>
+      <c r="B8" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.01912041715341e+20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>218</v>
+      </c>
+      <c r="F8" s="3">
+        <v>218</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J8" s="9">
+        <v>43803.7191203704</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:11">
+      <c r="A9" s="3">
+        <v>35797</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.01912041715241e+20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>427</v>
+      </c>
+      <c r="F9" s="3">
+        <v>427</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J9" s="9">
+        <v>43803.7190046296</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:11">
+      <c r="A10" s="3">
+        <v>35796</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.01912041715151e+20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>645</v>
+      </c>
+      <c r="F10" s="3">
+        <v>645</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J10" s="9">
+        <v>43803.7188888889</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:11">
+      <c r="A11" s="3">
+        <v>35795</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.01912041715031e+20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1330</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1330</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J11" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:11">
+      <c r="A12" s="3">
+        <v>35794</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.01912041714541e+20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>250</v>
+      </c>
+      <c r="F12" s="3">
+        <v>250</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J12" s="9">
+        <v>43803.7186458333</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:11">
+      <c r="A13" s="3">
+        <v>35793</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.01912041714451e+20</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>683</v>
+      </c>
+      <c r="F13" s="3">
+        <v>683</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J13" s="9">
+        <v>43803.7185416667</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:11">
+      <c r="A14" s="3">
+        <v>35792</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.01912041714361e+20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3">
+        <v>83</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J14" s="9">
+        <v>43803.7184375</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>35791</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.01912041714261e+20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>525</v>
+      </c>
+      <c r="F15" s="3">
+        <v>525</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J15" s="9">
+        <v>43803.7183217593</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:11">
+      <c r="A16" s="3">
+        <v>35790</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.01912041714171e+20</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>690</v>
+      </c>
+      <c r="F16" s="3">
+        <v>690</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J16" s="9">
+        <v>43803.7182175926</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:11">
+      <c r="A17" s="3">
+        <v>35789</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.01912041714071e+20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>877</v>
+      </c>
+      <c r="F17" s="3">
+        <v>877</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J17" s="9">
+        <v>43803.7181018519</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:11">
+      <c r="A18" s="3">
+        <v>35788</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.01912041713581e+20</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>769</v>
+      </c>
+      <c r="F18" s="3">
+        <v>769</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J18" s="9">
+        <v>43803.7179976852</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:11">
+      <c r="A19" s="3">
+        <v>35787</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.01912041713481e+20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>918</v>
+      </c>
+      <c r="F19" s="3">
+        <v>918</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J19" s="9">
+        <v>43803.7178819444</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:11">
+      <c r="A20" s="5">
+        <v>35786</v>
+      </c>
+      <c r="B20" s="5">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.01912041713391e+20</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1035</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1035</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="12">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J20" s="12">
+        <v>43803.7177777778</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:11">
+      <c r="A21" s="1">
+        <v>35785</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.01912041713291e+20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>518</v>
+      </c>
+      <c r="F21" s="1">
+        <v>518</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J21" s="7">
+        <v>43803.717650463</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:11">
+      <c r="A22" s="3">
+        <v>35784</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.01912041713171e+20</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>483</v>
+      </c>
+      <c r="F22" s="3">
+        <v>483</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J22" s="9">
+        <v>43803.7175231481</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:11">
+      <c r="A23" s="3">
+        <v>35783</v>
+      </c>
+      <c r="B23" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.01912041713021e+20</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>639</v>
+      </c>
+      <c r="F23" s="3">
+        <v>639</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J23" s="9">
+        <v>43803.717349537</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:11">
+      <c r="A24" s="3">
+        <v>35782</v>
+      </c>
+      <c r="B24" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.01912041712441e+20</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>560</v>
+      </c>
+      <c r="F24" s="3">
+        <v>560</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J24" s="9">
+        <v>43803.7171296296</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:11">
+      <c r="A25" s="3">
+        <v>35781</v>
+      </c>
+      <c r="B25" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.01912041712261e+20</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>812</v>
+      </c>
+      <c r="F25" s="3">
+        <v>812</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J25" s="9">
+        <v>43803.7169328704</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:11">
+      <c r="A26" s="3">
+        <v>35780</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.01912041712161e+20</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>453</v>
+      </c>
+      <c r="F26" s="3">
+        <v>453</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J26" s="9">
+        <v>43803.7168171296</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:11">
+      <c r="A27" s="3">
+        <v>35779</v>
+      </c>
+      <c r="B27" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.01912041712061e+20</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3">
+        <v>83</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J27" s="9">
+        <v>43803.716712963</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:11">
+      <c r="A28" s="3">
+        <v>35778</v>
+      </c>
+      <c r="B28" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.01912041711551e+20</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1163</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1163</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J28" s="9">
+        <v>43803.7165856482</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:11">
+      <c r="A29" s="3">
+        <v>35777</v>
+      </c>
+      <c r="B29" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2.01912041711431e+20</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1059</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1059</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9">
+        <v>43803.7159722222</v>
+      </c>
+      <c r="J29" s="9">
+        <v>43803.7164467593</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:11">
+      <c r="A30" s="3">
+        <v>35776</v>
+      </c>
+      <c r="B30" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.01912041711321e+20</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>598</v>
+      </c>
+      <c r="F30" s="3">
+        <v>598</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9">
+        <v>43803.7159722222</v>
+      </c>
+      <c r="J30" s="9">
+        <v>43803.7163194444</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:11">
+      <c r="A31" s="3">
+        <v>35775</v>
+      </c>
+      <c r="B31" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2.01912041711141e+20</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>575</v>
+      </c>
+      <c r="F31" s="3">
+        <v>575</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9">
+        <v>43803.7159722222</v>
+      </c>
+      <c r="J31" s="9">
+        <v>43803.716099537</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:11">
+      <c r="A32" s="3">
+        <v>35774</v>
+      </c>
+      <c r="B32" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2.01912041711041e+20</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>250</v>
+      </c>
+      <c r="F32" s="3">
+        <v>250</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9">
+        <v>43803.7159722222</v>
+      </c>
+      <c r="J32" s="9">
+        <v>43803.7159953704</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:11">
+      <c r="A33" s="3">
+        <v>35773</v>
+      </c>
+      <c r="B33" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2.01912041710541e+20</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>547</v>
+      </c>
+      <c r="F33" s="3">
+        <v>547</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9">
+        <v>43803.7152777778</v>
+      </c>
+      <c r="J33" s="9">
+        <v>43803.7158564815</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:11">
+      <c r="A34" s="3">
+        <v>35772</v>
+      </c>
+      <c r="B34" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.01912041710411e+20</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>147</v>
+      </c>
+      <c r="F34" s="3">
+        <v>147</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9">
+        <v>43803.7152777778</v>
+      </c>
+      <c r="J34" s="9">
+        <v>43803.7157175926</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:11">
+      <c r="A35" s="3">
+        <v>35771</v>
+      </c>
+      <c r="B35" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2.01912041710271e+20</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>548</v>
+      </c>
+      <c r="F35" s="3">
+        <v>548</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="9">
+        <v>43803.7152777778</v>
+      </c>
+      <c r="J35" s="9">
+        <v>43803.7154050926</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:11">
+      <c r="A36" s="3">
+        <v>35770</v>
+      </c>
+      <c r="B36" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.01912041710031e+20</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>73</v>
+      </c>
+      <c r="F36" s="3">
+        <v>73</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="9">
+        <v>43803.7152777778</v>
+      </c>
+      <c r="J36" s="9">
+        <v>43803.7152777778</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:11">
+      <c r="A37" s="5">
+        <v>35769</v>
+      </c>
+      <c r="B37" s="5">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.01912041709491e+20</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>297</v>
+      </c>
+      <c r="F37" s="5">
+        <v>297</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="12">
+        <v>43803.7145833333</v>
+      </c>
+      <c r="J37" s="12">
+        <v>43803.7149652778</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K2" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K3" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K4" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K5" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K6" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K7" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K8" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K9" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K10" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K11" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K12" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K13" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K14" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K15" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K16" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K17" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K18" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K19" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K20" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K21" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K22" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K23" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K24" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K25" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K26" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K27" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K28" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K29" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K30" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K31" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K32" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K33" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K34" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K35" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K36" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K37" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/s_d/麻吉go12月.xlsx
+++ b/s_d/麻吉go12月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -134,9 +134,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -188,8 +188,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -210,15 +232,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +264,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -239,23 +278,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,54 +311,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,25 +357,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,78 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,19 +471,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,37 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +627,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -651,26 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,11 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,16 +727,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -746,112 +746,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15197,32 +15197,32 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="15" spans="1:11">
       <c r="A1" s="1">
-        <v>35805</v>
+        <v>35867</v>
       </c>
       <c r="B1" s="1">
         <v>15874</v>
       </c>
       <c r="C1" s="1">
-        <v>2.01912041716451e+20</v>
+        <v>2.01912041835431e+20</v>
       </c>
       <c r="D1" s="2">
         <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>732</v>
+        <v>271.9</v>
       </c>
       <c r="F1" s="1">
-        <v>732</v>
+        <v>271.9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -15231,10 +15231,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="7">
-        <v>43803.7194444444</v>
+        <v>43803.7743055556</v>
       </c>
       <c r="J1" s="7">
-        <v>43803.7199421296</v>
+        <v>43803.7747685185</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>13</v>
@@ -15242,22 +15242,22 @@
     </row>
     <row r="2" ht="15" spans="1:11">
       <c r="A2" s="3">
-        <v>35804</v>
+        <v>35866</v>
       </c>
       <c r="B2" s="3">
         <v>15874</v>
       </c>
       <c r="C2" s="3">
-        <v>2.01912041716361e+20</v>
+        <v>2.01912041835321e+20</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>238</v>
+        <v>360</v>
       </c>
       <c r="F2" s="3">
-        <v>238</v>
+        <v>360</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
@@ -15266,10 +15266,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="9">
-        <v>43803.7194444444</v>
+        <v>43803.7743055556</v>
       </c>
       <c r="J2" s="9">
-        <v>43803.7198263889</v>
+        <v>43803.7746412037</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>13</v>
@@ -15277,22 +15277,22 @@
     </row>
     <row r="3" ht="15" spans="1:11">
       <c r="A3" s="3">
-        <v>35803</v>
+        <v>35864</v>
       </c>
       <c r="B3" s="3">
         <v>15874</v>
       </c>
       <c r="C3" s="3">
-        <v>2.01912041716261e+20</v>
+        <v>2.01912041835201e+20</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>659</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3">
-        <v>659</v>
+        <v>127</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -15301,33 +15301,33 @@
         <v>12</v>
       </c>
       <c r="I3" s="9">
-        <v>43803.7194444444</v>
+        <v>43803.7743055556</v>
       </c>
       <c r="J3" s="9">
-        <v>43803.7197106481</v>
+        <v>43803.7744444444</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:16">
+    <row r="4" ht="15" spans="1:11">
       <c r="A4" s="3">
-        <v>35802</v>
+        <v>35863</v>
       </c>
       <c r="B4" s="3">
         <v>15874</v>
       </c>
       <c r="C4" s="3">
-        <v>2.01912041716151e+20</v>
+        <v>2.01912041835031e+20</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F4" s="3">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
@@ -15336,39 +15336,33 @@
         <v>12</v>
       </c>
       <c r="I4" s="9">
-        <v>43803.7194444444</v>
+        <v>43803.7743055556</v>
       </c>
       <c r="J4" s="9">
-        <v>43803.7195949074</v>
+        <v>43803.7743055556</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
     </row>
     <row r="5" ht="15" spans="1:16">
       <c r="A5" s="3">
-        <v>35801</v>
+        <v>35862</v>
       </c>
       <c r="B5" s="3">
         <v>15874</v>
       </c>
       <c r="C5" s="3">
-        <v>2.01912041716041e+20</v>
+        <v>2.01912041834501e+20</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>115</v>
+        <v>933</v>
       </c>
       <c r="F5" s="3">
-        <v>115</v>
+        <v>933</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
@@ -15377,45 +15371,41 @@
         <v>12</v>
       </c>
       <c r="I5" s="9">
-        <v>43803.7194444444</v>
+        <v>43803.7736111111</v>
       </c>
       <c r="J5" s="9">
-        <v>43803.7194675926</v>
+        <v>43803.7741550926</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="11">
-        <v>20000</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="11">
-        <v>20</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" ht="15" spans="1:16">
       <c r="A6" s="3">
-        <v>35800</v>
+        <v>35861</v>
       </c>
       <c r="B6" s="3">
         <v>15874</v>
       </c>
       <c r="C6" s="3">
-        <v>2.01912041715551e+20</v>
+        <v>2.01912041834391e+20</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>495</v>
+        <v>683</v>
       </c>
       <c r="F6" s="3">
-        <v>495</v>
+        <v>683</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -15424,41 +15414,45 @@
         <v>12</v>
       </c>
       <c r="I6" s="9">
-        <v>43803.71875</v>
+        <v>43803.7736111111</v>
       </c>
       <c r="J6" s="9">
-        <v>43803.7193634259</v>
+        <v>43803.773900463</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>20774</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="N6" s="11">
+        <v>20000</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="11">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" ht="15" spans="1:16">
       <c r="A7" s="3">
-        <v>35799</v>
+        <v>35860</v>
       </c>
       <c r="B7" s="3">
         <v>15874</v>
       </c>
       <c r="C7" s="3">
-        <v>2.01912041715451e+20</v>
+        <v>2.01912041834151e+20</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>1154</v>
+        <v>1086</v>
       </c>
       <c r="F7" s="3">
-        <v>1154</v>
+        <v>1086</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -15467,41 +15461,41 @@
         <v>12</v>
       </c>
       <c r="I7" s="9">
-        <v>43803.71875</v>
+        <v>43803.7736111111</v>
       </c>
       <c r="J7" s="9">
-        <v>43803.7192476852</v>
+        <v>43803.77375</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="11">
-        <v>204.76</v>
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <v>49910.6</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" ht="15" spans="1:11">
+    <row r="8" ht="15" spans="1:16">
       <c r="A8" s="3">
-        <v>35798</v>
+        <v>35857</v>
       </c>
       <c r="B8" s="3">
         <v>15874</v>
       </c>
       <c r="C8" s="3">
-        <v>2.01912041715341e+20</v>
+        <v>2.01912041834041e+20</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F8" s="3">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -15510,33 +15504,41 @@
         <v>12</v>
       </c>
       <c r="I8" s="9">
-        <v>43803.71875</v>
+        <v>43803.7736111111</v>
       </c>
       <c r="J8" s="9">
-        <v>43803.7191203704</v>
+        <v>43803.7736111111</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="M8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1068.16</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" ht="15" spans="1:11">
       <c r="A9" s="3">
-        <v>35797</v>
+        <v>35856</v>
       </c>
       <c r="B9" s="3">
         <v>15874</v>
       </c>
       <c r="C9" s="3">
-        <v>2.01912041715241e+20</v>
+        <v>2.01912041833501e+20</v>
       </c>
       <c r="D9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="F9" s="3">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>11</v>
@@ -15545,10 +15547,10 @@
         <v>12</v>
       </c>
       <c r="I9" s="9">
-        <v>43803.71875</v>
+        <v>43803.7729166667</v>
       </c>
       <c r="J9" s="9">
-        <v>43803.7190046296</v>
+        <v>43803.7733449074</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>13</v>
@@ -15556,22 +15558,22 @@
     </row>
     <row r="10" ht="15" spans="1:11">
       <c r="A10" s="3">
-        <v>35796</v>
+        <v>35854</v>
       </c>
       <c r="B10" s="3">
         <v>15874</v>
       </c>
       <c r="C10" s="3">
-        <v>2.01912041715151e+20</v>
+        <v>2.01912041833301e+20</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>645</v>
+        <v>1678</v>
       </c>
       <c r="F10" s="3">
-        <v>645</v>
+        <v>1678</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
@@ -15580,10 +15582,10 @@
         <v>12</v>
       </c>
       <c r="I10" s="9">
-        <v>43803.71875</v>
+        <v>43803.7729166667</v>
       </c>
       <c r="J10" s="9">
-        <v>43803.7188888889</v>
+        <v>43803.7732175926</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>13</v>
@@ -15591,22 +15593,22 @@
     </row>
     <row r="11" ht="15" spans="1:11">
       <c r="A11" s="3">
-        <v>35795</v>
+        <v>35853</v>
       </c>
       <c r="B11" s="3">
         <v>15874</v>
       </c>
       <c r="C11" s="3">
-        <v>2.01912041715031e+20</v>
+        <v>2.01912041833121e+20</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="3">
-        <v>1330</v>
+        <v>166</v>
       </c>
       <c r="F11" s="3">
-        <v>1330</v>
+        <v>166</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>11</v>
@@ -15615,10 +15617,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="9">
-        <v>43803.71875</v>
+        <v>43803.7729166667</v>
       </c>
       <c r="J11" s="9">
-        <v>43803.71875</v>
+        <v>43803.7730208333</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>13</v>
@@ -15626,22 +15628,22 @@
     </row>
     <row r="12" ht="15" spans="1:11">
       <c r="A12" s="3">
-        <v>35794</v>
+        <v>35852</v>
       </c>
       <c r="B12" s="3">
         <v>15874</v>
       </c>
       <c r="C12" s="3">
-        <v>2.01912041714541e+20</v>
+        <v>2.01912041832581e+20</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="F12" s="3">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>11</v>
@@ -15650,10 +15652,10 @@
         <v>12</v>
       </c>
       <c r="I12" s="9">
-        <v>43803.7180555556</v>
+        <v>43803.7729166667</v>
       </c>
       <c r="J12" s="9">
-        <v>43803.7186458333</v>
+        <v>43803.7728472222</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>13</v>
@@ -15661,22 +15663,22 @@
     </row>
     <row r="13" ht="15" spans="1:11">
       <c r="A13" s="3">
-        <v>35793</v>
+        <v>35851</v>
       </c>
       <c r="B13" s="3">
         <v>15874</v>
       </c>
       <c r="C13" s="3">
-        <v>2.01912041714451e+20</v>
+        <v>2.01912041832441e+20</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>683</v>
+        <v>524.7</v>
       </c>
       <c r="F13" s="3">
-        <v>683</v>
+        <v>524.7</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>11</v>
@@ -15685,10 +15687,10 @@
         <v>12</v>
       </c>
       <c r="I13" s="9">
-        <v>43803.7180555556</v>
+        <v>43803.7722222222</v>
       </c>
       <c r="J13" s="9">
-        <v>43803.7185416667</v>
+        <v>43803.7726967593</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>13</v>
@@ -15696,22 +15698,22 @@
     </row>
     <row r="14" ht="15" spans="1:11">
       <c r="A14" s="3">
-        <v>35792</v>
+        <v>35850</v>
       </c>
       <c r="B14" s="3">
         <v>15874</v>
       </c>
       <c r="C14" s="3">
-        <v>2.01912041714361e+20</v>
+        <v>2.01912041832291e+20</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="F14" s="3">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -15720,10 +15722,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="9">
-        <v>43803.7180555556</v>
+        <v>43803.7722222222</v>
       </c>
       <c r="J14" s="9">
-        <v>43803.7184375</v>
+        <v>43803.7725231481</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>13</v>
@@ -15731,22 +15733,22 @@
     </row>
     <row r="15" ht="15" spans="1:11">
       <c r="A15" s="3">
-        <v>35791</v>
+        <v>35849</v>
       </c>
       <c r="B15" s="3">
         <v>15874</v>
       </c>
       <c r="C15" s="3">
-        <v>2.01912041714261e+20</v>
+        <v>2.01912041832171e+20</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>525</v>
+        <v>199</v>
       </c>
       <c r="F15" s="3">
-        <v>525</v>
+        <v>199</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>11</v>
@@ -15755,10 +15757,10 @@
         <v>12</v>
       </c>
       <c r="I15" s="9">
-        <v>43803.7180555556</v>
+        <v>43803.7722222222</v>
       </c>
       <c r="J15" s="9">
-        <v>43803.7183217593</v>
+        <v>43803.7723958333</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>13</v>
@@ -15766,22 +15768,22 @@
     </row>
     <row r="16" ht="15" spans="1:11">
       <c r="A16" s="3">
-        <v>35790</v>
+        <v>35848</v>
       </c>
       <c r="B16" s="3">
         <v>15874</v>
       </c>
       <c r="C16" s="3">
-        <v>2.01912041714171e+20</v>
+        <v>2.01912041832051e+20</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="F16" s="3">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>11</v>
@@ -15790,10 +15792,10 @@
         <v>12</v>
       </c>
       <c r="I16" s="9">
-        <v>43803.7180555556</v>
+        <v>43803.7722222222</v>
       </c>
       <c r="J16" s="9">
-        <v>43803.7182175926</v>
+        <v>43803.7722453704</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>13</v>
@@ -15801,22 +15803,22 @@
     </row>
     <row r="17" ht="15" spans="1:11">
       <c r="A17" s="3">
-        <v>35789</v>
+        <v>35847</v>
       </c>
       <c r="B17" s="3">
         <v>15874</v>
       </c>
       <c r="C17" s="3">
-        <v>2.01912041714071e+20</v>
+        <v>2.01912041831481e+20</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>877</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3">
-        <v>877</v>
+        <v>76</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>11</v>
@@ -15825,10 +15827,10 @@
         <v>12</v>
       </c>
       <c r="I17" s="9">
-        <v>43803.7180555556</v>
+        <v>43803.7715277778</v>
       </c>
       <c r="J17" s="9">
-        <v>43803.7181018519</v>
+        <v>43803.7712037037</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>13</v>
@@ -15836,22 +15838,22 @@
     </row>
     <row r="18" ht="15" spans="1:11">
       <c r="A18" s="3">
-        <v>35788</v>
+        <v>35846</v>
       </c>
       <c r="B18" s="3">
         <v>15874</v>
       </c>
       <c r="C18" s="3">
-        <v>2.01912041713581e+20</v>
+        <v>2.01912041830201e+20</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>769</v>
+        <v>429</v>
       </c>
       <c r="F18" s="3">
-        <v>769</v>
+        <v>429</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>11</v>
@@ -15860,10 +15862,10 @@
         <v>12</v>
       </c>
       <c r="I18" s="9">
-        <v>43803.7180555556</v>
+        <v>43803.7708333333</v>
       </c>
       <c r="J18" s="9">
-        <v>43803.7179976852</v>
+        <v>43803.7710300926</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>13</v>
@@ -15871,22 +15873,22 @@
     </row>
     <row r="19" ht="15" spans="1:11">
       <c r="A19" s="3">
-        <v>35787</v>
+        <v>35845</v>
       </c>
       <c r="B19" s="3">
         <v>15874</v>
       </c>
       <c r="C19" s="3">
-        <v>2.01912041713481e+20</v>
+        <v>2.01912041830071e+20</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>918</v>
+        <v>531</v>
       </c>
       <c r="F19" s="3">
-        <v>918</v>
+        <v>531</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>11</v>
@@ -15895,10 +15897,10 @@
         <v>12</v>
       </c>
       <c r="I19" s="9">
-        <v>43803.7173611111</v>
+        <v>43803.7708333333</v>
       </c>
       <c r="J19" s="9">
-        <v>43803.7178819444</v>
+        <v>43803.7708796296</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>13</v>
@@ -15906,22 +15908,22 @@
     </row>
     <row r="20" ht="15" spans="1:11">
       <c r="A20" s="5">
-        <v>35786</v>
+        <v>35844</v>
       </c>
       <c r="B20" s="5">
         <v>15874</v>
       </c>
       <c r="C20" s="5">
-        <v>2.01912041713391e+20</v>
+        <v>2.01912041829571e+20</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
       </c>
       <c r="E20" s="5">
-        <v>1035</v>
+        <v>187</v>
       </c>
       <c r="F20" s="5">
-        <v>1035</v>
+        <v>187</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>11</v>
@@ -15930,10 +15932,10 @@
         <v>12</v>
       </c>
       <c r="I20" s="12">
-        <v>43803.7173611111</v>
+        <v>43803.7708333333</v>
       </c>
       <c r="J20" s="12">
-        <v>43803.7177777778</v>
+        <v>43803.7707407407</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>13</v>
@@ -15941,22 +15943,22 @@
     </row>
     <row r="21" ht="15" spans="1:11">
       <c r="A21" s="1">
-        <v>35785</v>
+        <v>35843</v>
       </c>
       <c r="B21" s="1">
         <v>15874</v>
       </c>
       <c r="C21" s="1">
-        <v>2.01912041713291e+20</v>
+        <v>2.01912041829441e+20</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>518</v>
+        <v>1273</v>
       </c>
       <c r="F21" s="1">
-        <v>518</v>
+        <v>1273</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
@@ -15965,10 +15967,10 @@
         <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>43803.7173611111</v>
+        <v>43803.7701388889</v>
       </c>
       <c r="J21" s="7">
-        <v>43803.717650463</v>
+        <v>43803.7706134259</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>13</v>
@@ -15976,22 +15978,22 @@
     </row>
     <row r="22" ht="15" spans="1:11">
       <c r="A22" s="3">
-        <v>35784</v>
+        <v>35842</v>
       </c>
       <c r="B22" s="3">
         <v>15874</v>
       </c>
       <c r="C22" s="3">
-        <v>2.01912041713171e+20</v>
+        <v>2.01912041829301e+20</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>483</v>
+        <v>1012</v>
       </c>
       <c r="F22" s="3">
-        <v>483</v>
+        <v>1012</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>11</v>
@@ -16000,10 +16002,10 @@
         <v>12</v>
       </c>
       <c r="I22" s="9">
-        <v>43803.7173611111</v>
+        <v>43803.7701388889</v>
       </c>
       <c r="J22" s="9">
-        <v>43803.7175231481</v>
+        <v>43803.7704513889</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>13</v>
@@ -16011,22 +16013,22 @@
     </row>
     <row r="23" ht="15" spans="1:11">
       <c r="A23" s="3">
-        <v>35783</v>
+        <v>35841</v>
       </c>
       <c r="B23" s="3">
         <v>15874</v>
       </c>
       <c r="C23" s="3">
-        <v>2.01912041713021e+20</v>
+        <v>2.01912041829161e+20</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>639</v>
+        <v>504</v>
       </c>
       <c r="F23" s="3">
-        <v>639</v>
+        <v>504</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>11</v>
@@ -16035,10 +16037,10 @@
         <v>12</v>
       </c>
       <c r="I23" s="9">
-        <v>43803.7173611111</v>
+        <v>43803.7701388889</v>
       </c>
       <c r="J23" s="9">
-        <v>43803.717349537</v>
+        <v>43803.7702777778</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>13</v>
@@ -16046,22 +16048,22 @@
     </row>
     <row r="24" ht="15" spans="1:11">
       <c r="A24" s="3">
-        <v>35782</v>
+        <v>35840</v>
       </c>
       <c r="B24" s="3">
         <v>15874</v>
       </c>
       <c r="C24" s="3">
-        <v>2.01912041712441e+20</v>
+        <v>2.01912041829041e+20</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>560</v>
+        <v>776</v>
       </c>
       <c r="F24" s="3">
-        <v>560</v>
+        <v>776</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>11</v>
@@ -16070,10 +16072,10 @@
         <v>12</v>
       </c>
       <c r="I24" s="9">
-        <v>43803.7166666667</v>
+        <v>43803.7701388889</v>
       </c>
       <c r="J24" s="9">
-        <v>43803.7171296296</v>
+        <v>43803.770150463</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>13</v>
@@ -16081,22 +16083,22 @@
     </row>
     <row r="25" ht="15" spans="1:11">
       <c r="A25" s="3">
-        <v>35781</v>
+        <v>35839</v>
       </c>
       <c r="B25" s="3">
         <v>15874</v>
       </c>
       <c r="C25" s="3">
-        <v>2.01912041712261e+20</v>
+        <v>2.01912041828541e+20</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>812</v>
+        <v>220</v>
       </c>
       <c r="F25" s="3">
-        <v>812</v>
+        <v>220</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>11</v>
@@ -16105,10 +16107,10 @@
         <v>12</v>
       </c>
       <c r="I25" s="9">
-        <v>43803.7166666667</v>
+        <v>43803.7694444444</v>
       </c>
       <c r="J25" s="9">
-        <v>43803.7169328704</v>
+        <v>43803.7700347222</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>13</v>
@@ -16116,22 +16118,22 @@
     </row>
     <row r="26" ht="15" spans="1:11">
       <c r="A26" s="3">
-        <v>35780</v>
+        <v>35837</v>
       </c>
       <c r="B26" s="3">
         <v>15874</v>
       </c>
       <c r="C26" s="3">
-        <v>2.01912041712161e+20</v>
+        <v>2.01912041828431e+20</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>453</v>
+        <v>770</v>
       </c>
       <c r="F26" s="3">
-        <v>453</v>
+        <v>770</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>11</v>
@@ -16140,10 +16142,10 @@
         <v>12</v>
       </c>
       <c r="I26" s="9">
-        <v>43803.7166666667</v>
+        <v>43803.7694444444</v>
       </c>
       <c r="J26" s="9">
-        <v>43803.7168171296</v>
+        <v>43803.7699189815</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>13</v>
@@ -16151,22 +16153,22 @@
     </row>
     <row r="27" ht="15" spans="1:11">
       <c r="A27" s="3">
-        <v>35779</v>
+        <v>35836</v>
       </c>
       <c r="B27" s="3">
         <v>15874</v>
       </c>
       <c r="C27" s="3">
-        <v>2.01912041712061e+20</v>
+        <v>2.01912041828341e+20</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="F27" s="3">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>11</v>
@@ -16175,10 +16177,10 @@
         <v>12</v>
       </c>
       <c r="I27" s="9">
-        <v>43803.7166666667</v>
+        <v>43803.7694444444</v>
       </c>
       <c r="J27" s="9">
-        <v>43803.716712963</v>
+        <v>43803.7698148148</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>13</v>
@@ -16186,22 +16188,22 @@
     </row>
     <row r="28" ht="15" spans="1:11">
       <c r="A28" s="3">
-        <v>35778</v>
+        <v>35835</v>
       </c>
       <c r="B28" s="3">
         <v>15874</v>
       </c>
       <c r="C28" s="3">
-        <v>2.01912041711551e+20</v>
+        <v>2.01912041828251e+20</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>1163</v>
+        <v>413</v>
       </c>
       <c r="F28" s="3">
-        <v>1163</v>
+        <v>413</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
@@ -16210,10 +16212,10 @@
         <v>12</v>
       </c>
       <c r="I28" s="9">
-        <v>43803.7166666667</v>
+        <v>43803.7694444444</v>
       </c>
       <c r="J28" s="9">
-        <v>43803.7165856482</v>
+        <v>43803.7697106482</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>13</v>
@@ -16221,22 +16223,22 @@
     </row>
     <row r="29" ht="15" spans="1:11">
       <c r="A29" s="3">
-        <v>35777</v>
+        <v>35834</v>
       </c>
       <c r="B29" s="3">
         <v>15874</v>
       </c>
       <c r="C29" s="3">
-        <v>2.01912041711431e+20</v>
+        <v>2.01912041828151e+20</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="3">
-        <v>1059</v>
+        <v>269</v>
       </c>
       <c r="F29" s="3">
-        <v>1059</v>
+        <v>269</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -16245,10 +16247,10 @@
         <v>12</v>
       </c>
       <c r="I29" s="9">
-        <v>43803.7159722222</v>
+        <v>43803.7694444444</v>
       </c>
       <c r="J29" s="9">
-        <v>43803.7164467593</v>
+        <v>43803.7695833333</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>13</v>
@@ -16256,22 +16258,22 @@
     </row>
     <row r="30" ht="15" spans="1:11">
       <c r="A30" s="3">
-        <v>35776</v>
+        <v>35833</v>
       </c>
       <c r="B30" s="3">
         <v>15874</v>
       </c>
       <c r="C30" s="3">
-        <v>2.01912041711321e+20</v>
+        <v>2.01912041828051e+20</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
       </c>
       <c r="E30" s="3">
-        <v>598</v>
+        <v>1430</v>
       </c>
       <c r="F30" s="3">
-        <v>598</v>
+        <v>1430</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>11</v>
@@ -16280,10 +16282,10 @@
         <v>12</v>
       </c>
       <c r="I30" s="9">
-        <v>43803.7159722222</v>
+        <v>43803.7694444444</v>
       </c>
       <c r="J30" s="9">
-        <v>43803.7163194444</v>
+        <v>43803.7694328704</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>13</v>
@@ -16291,22 +16293,22 @@
     </row>
     <row r="31" ht="15" spans="1:11">
       <c r="A31" s="3">
-        <v>35775</v>
+        <v>35832</v>
       </c>
       <c r="B31" s="3">
         <v>15874</v>
       </c>
       <c r="C31" s="3">
-        <v>2.01912041711141e+20</v>
+        <v>2.01912041827461e+20</v>
       </c>
       <c r="D31" s="4">
         <v>2</v>
       </c>
       <c r="E31" s="3">
-        <v>575</v>
+        <v>1050</v>
       </c>
       <c r="F31" s="3">
-        <v>575</v>
+        <v>1050</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>11</v>
@@ -16315,10 +16317,10 @@
         <v>12</v>
       </c>
       <c r="I31" s="9">
-        <v>43803.7159722222</v>
+        <v>43803.76875</v>
       </c>
       <c r="J31" s="9">
-        <v>43803.716099537</v>
+        <v>43803.7692476852</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>13</v>
@@ -16326,22 +16328,22 @@
     </row>
     <row r="32" ht="15" spans="1:11">
       <c r="A32" s="3">
-        <v>35774</v>
+        <v>35831</v>
       </c>
       <c r="B32" s="3">
         <v>15874</v>
       </c>
       <c r="C32" s="3">
-        <v>2.01912041711041e+20</v>
+        <v>2.01912041827361e+20</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
       </c>
       <c r="E32" s="3">
-        <v>250</v>
+        <v>439</v>
       </c>
       <c r="F32" s="3">
-        <v>250</v>
+        <v>439</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>11</v>
@@ -16350,10 +16352,10 @@
         <v>12</v>
       </c>
       <c r="I32" s="9">
-        <v>43803.7159722222</v>
+        <v>43803.76875</v>
       </c>
       <c r="J32" s="9">
-        <v>43803.7159953704</v>
+        <v>43803.7691319444</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>13</v>
@@ -16361,22 +16363,22 @@
     </row>
     <row r="33" ht="15" spans="1:11">
       <c r="A33" s="3">
-        <v>35773</v>
+        <v>35830</v>
       </c>
       <c r="B33" s="3">
         <v>15874</v>
       </c>
       <c r="C33" s="3">
-        <v>2.01912041710541e+20</v>
+        <v>2.01912041827241e+20</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="3">
-        <v>547</v>
+        <v>384</v>
       </c>
       <c r="F33" s="3">
-        <v>547</v>
+        <v>384</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>11</v>
@@ -16385,10 +16387,10 @@
         <v>12</v>
       </c>
       <c r="I33" s="9">
-        <v>43803.7152777778</v>
+        <v>43803.76875</v>
       </c>
       <c r="J33" s="9">
-        <v>43803.7158564815</v>
+        <v>43803.7689930556</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>13</v>
@@ -16396,22 +16398,22 @@
     </row>
     <row r="34" ht="15" spans="1:11">
       <c r="A34" s="3">
-        <v>35772</v>
+        <v>35829</v>
       </c>
       <c r="B34" s="3">
         <v>15874</v>
       </c>
       <c r="C34" s="3">
-        <v>2.01912041710411e+20</v>
+        <v>2.01912041827111e+20</v>
       </c>
       <c r="D34" s="4">
         <v>2</v>
       </c>
       <c r="E34" s="3">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="F34" s="3">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>11</v>
@@ -16420,10 +16422,10 @@
         <v>12</v>
       </c>
       <c r="I34" s="9">
-        <v>43803.7152777778</v>
+        <v>43803.76875</v>
       </c>
       <c r="J34" s="9">
-        <v>43803.7157175926</v>
+        <v>43803.7688425926</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>13</v>
@@ -16431,22 +16433,22 @@
     </row>
     <row r="35" ht="15" spans="1:11">
       <c r="A35" s="3">
-        <v>35771</v>
+        <v>35828</v>
       </c>
       <c r="B35" s="3">
         <v>15874</v>
       </c>
       <c r="C35" s="3">
-        <v>2.01912041710271e+20</v>
+        <v>2.01912041826591e+20</v>
       </c>
       <c r="D35" s="4">
         <v>2</v>
       </c>
       <c r="E35" s="3">
-        <v>548</v>
+        <v>295</v>
       </c>
       <c r="F35" s="3">
-        <v>548</v>
+        <v>295</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>11</v>
@@ -16455,10 +16457,10 @@
         <v>12</v>
       </c>
       <c r="I35" s="9">
-        <v>43803.7152777778</v>
+        <v>43803.76875</v>
       </c>
       <c r="J35" s="9">
-        <v>43803.7154050926</v>
+        <v>43803.7687037037</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>13</v>
@@ -16466,71 +16468,1821 @@
     </row>
     <row r="36" ht="15" spans="1:11">
       <c r="A36" s="3">
+        <v>35827</v>
+      </c>
+      <c r="B36" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.01912041826431e+20</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>397</v>
+      </c>
+      <c r="F36" s="3">
+        <v>397</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="9">
+        <v>43803.7680555556</v>
+      </c>
+      <c r="J36" s="9">
+        <v>43803.7684953704</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:11">
+      <c r="A37" s="3">
+        <v>35826</v>
+      </c>
+      <c r="B37" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.01912041826101e+20</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>568</v>
+      </c>
+      <c r="F37" s="3">
+        <v>568</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9">
+        <v>43803.7680555556</v>
+      </c>
+      <c r="J37" s="9">
+        <v>43803.7681018518</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:11">
+      <c r="A38" s="3">
+        <v>35825</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2.01912041825531e+20</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>594</v>
+      </c>
+      <c r="F38" s="3">
+        <v>594</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="9">
+        <v>43803.7680555556</v>
+      </c>
+      <c r="J38" s="9">
+        <v>43803.7679282407</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:11">
+      <c r="A39" s="3">
+        <v>35824</v>
+      </c>
+      <c r="B39" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2.01912041825421e+20</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>397</v>
+      </c>
+      <c r="F39" s="3">
+        <v>397</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9">
+        <v>43803.7673611111</v>
+      </c>
+      <c r="J39" s="9">
+        <v>43803.7678125</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:11">
+      <c r="A40" s="5">
+        <v>35823</v>
+      </c>
+      <c r="B40" s="5">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.01912041825281e+20</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1308</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1308</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="12">
+        <v>43803.7673611111</v>
+      </c>
+      <c r="J40" s="12">
+        <v>43803.7676388889</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:11">
+      <c r="A41" s="1">
+        <v>35821</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.01912041825151e+20</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>476</v>
+      </c>
+      <c r="F41" s="1">
+        <v>476</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="7">
+        <v>43803.7673611111</v>
+      </c>
+      <c r="J41" s="7">
+        <v>43803.7675</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:11">
+      <c r="A42" s="3">
+        <v>35820</v>
+      </c>
+      <c r="B42" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2.01912041825031e+20</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1159</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1159</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9">
+        <v>43803.7673611111</v>
+      </c>
+      <c r="J42" s="9">
+        <v>43803.767349537</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:11">
+      <c r="A43" s="3">
+        <v>35819</v>
+      </c>
+      <c r="B43" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2.01912041824481e+20</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>578</v>
+      </c>
+      <c r="F43" s="3">
+        <v>578</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9">
+        <v>43803.7666666667</v>
+      </c>
+      <c r="J43" s="9">
+        <v>43803.7671875</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:11">
+      <c r="A44" s="3">
+        <v>35818</v>
+      </c>
+      <c r="B44" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2.01912041824371e+20</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>897</v>
+      </c>
+      <c r="F44" s="3">
+        <v>897</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="9">
+        <v>43803.7666666667</v>
+      </c>
+      <c r="J44" s="9">
+        <v>43803.7670486111</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:11">
+      <c r="A45" s="3">
+        <v>35817</v>
+      </c>
+      <c r="B45" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2.01912041824261e+20</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>839</v>
+      </c>
+      <c r="F45" s="3">
+        <v>839</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9">
+        <v>43803.7666666667</v>
+      </c>
+      <c r="J45" s="9">
+        <v>43803.7669212963</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:11">
+      <c r="A46" s="3">
+        <v>35816</v>
+      </c>
+      <c r="B46" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2.01912041824141e+20</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>699</v>
+      </c>
+      <c r="F46" s="3">
+        <v>699</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9">
+        <v>43803.7666666667</v>
+      </c>
+      <c r="J46" s="9">
+        <v>43803.7667592593</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:11">
+      <c r="A47" s="3">
+        <v>35815</v>
+      </c>
+      <c r="B47" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2.01912041823591e+20</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1012</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1012</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="9">
+        <v>43803.7666666667</v>
+      </c>
+      <c r="J47" s="9">
+        <v>43803.7665856481</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:11">
+      <c r="A48" s="3">
+        <v>35814</v>
+      </c>
+      <c r="B48" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2.01912041823411e+20</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>213</v>
+      </c>
+      <c r="F48" s="3">
+        <v>213</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9">
+        <v>43803.7659722222</v>
+      </c>
+      <c r="J48" s="9">
+        <v>43803.7661921296</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:11">
+      <c r="A49" s="3">
+        <v>35813</v>
+      </c>
+      <c r="B49" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2.01912041823061e+20</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>578</v>
+      </c>
+      <c r="F49" s="3">
+        <v>578</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="9">
+        <v>43803.7659722222</v>
+      </c>
+      <c r="J49" s="9">
+        <v>43803.7660069444</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:11">
+      <c r="A50" s="3">
+        <v>35812</v>
+      </c>
+      <c r="B50" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2.01912041822531e+20</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>640</v>
+      </c>
+      <c r="F50" s="3">
+        <v>640</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9">
+        <v>43803.7652777778</v>
+      </c>
+      <c r="J50" s="9">
+        <v>43803.7658217593</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:11">
+      <c r="A51" s="3">
+        <v>35805</v>
+      </c>
+      <c r="B51" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2.01912041716451e+20</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>732</v>
+      </c>
+      <c r="F51" s="3">
+        <v>732</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J51" s="9">
+        <v>43803.7199421296</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:11">
+      <c r="A52" s="3">
+        <v>35804</v>
+      </c>
+      <c r="B52" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2.01912041716361e+20</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>238</v>
+      </c>
+      <c r="F52" s="3">
+        <v>238</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J52" s="9">
+        <v>43803.7198263889</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:11">
+      <c r="A53" s="3">
+        <v>35803</v>
+      </c>
+      <c r="B53" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2.01912041716261e+20</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>659</v>
+      </c>
+      <c r="F53" s="3">
+        <v>659</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J53" s="9">
+        <v>43803.7197106481</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:11">
+      <c r="A54" s="3">
+        <v>35802</v>
+      </c>
+      <c r="B54" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.01912041716151e+20</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>126</v>
+      </c>
+      <c r="F54" s="3">
+        <v>126</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J54" s="9">
+        <v>43803.7195949074</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:11">
+      <c r="A55" s="3">
+        <v>35801</v>
+      </c>
+      <c r="B55" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2.01912041716041e+20</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>115</v>
+      </c>
+      <c r="F55" s="3">
+        <v>115</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9">
+        <v>43803.7194444444</v>
+      </c>
+      <c r="J55" s="9">
+        <v>43803.7194675926</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:11">
+      <c r="A56" s="3">
+        <v>35800</v>
+      </c>
+      <c r="B56" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2.01912041715551e+20</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>495</v>
+      </c>
+      <c r="F56" s="3">
+        <v>495</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J56" s="9">
+        <v>43803.7193634259</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:11">
+      <c r="A57" s="3">
+        <v>35799</v>
+      </c>
+      <c r="B57" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2.01912041715451e+20</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1154</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1154</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J57" s="9">
+        <v>43803.7192476852</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:11">
+      <c r="A58" s="3">
+        <v>35798</v>
+      </c>
+      <c r="B58" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2.01912041715341e+20</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
+        <v>218</v>
+      </c>
+      <c r="F58" s="3">
+        <v>218</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J58" s="9">
+        <v>43803.7191203704</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:11">
+      <c r="A59" s="3">
+        <v>35797</v>
+      </c>
+      <c r="B59" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2.01912041715241e+20</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>427</v>
+      </c>
+      <c r="F59" s="3">
+        <v>427</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9">
+        <v>43803.71875</v>
+      </c>
+      <c r="J59" s="9">
+        <v>43803.7190046296</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:11">
+      <c r="A60" s="5">
+        <v>35796</v>
+      </c>
+      <c r="B60" s="5">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.01912041715151e+20</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5">
+        <v>645</v>
+      </c>
+      <c r="F60" s="5">
+        <v>645</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="12">
+        <v>43803.71875</v>
+      </c>
+      <c r="J60" s="12">
+        <v>43803.7188888889</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:11">
+      <c r="A61" s="1">
+        <v>35795</v>
+      </c>
+      <c r="B61" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2.01912041715031e+20</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1330</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1330</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="7">
+        <v>43803.71875</v>
+      </c>
+      <c r="J61" s="7">
+        <v>43803.71875</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:11">
+      <c r="A62" s="3">
+        <v>35794</v>
+      </c>
+      <c r="B62" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2.01912041714541e+20</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>250</v>
+      </c>
+      <c r="F62" s="3">
+        <v>250</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J62" s="9">
+        <v>43803.7186458333</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:11">
+      <c r="A63" s="3">
+        <v>35793</v>
+      </c>
+      <c r="B63" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2.01912041714451e+20</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>683</v>
+      </c>
+      <c r="F63" s="3">
+        <v>683</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J63" s="9">
+        <v>43803.7185416667</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:11">
+      <c r="A64" s="3">
+        <v>35792</v>
+      </c>
+      <c r="B64" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2.01912041714361e+20</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>83</v>
+      </c>
+      <c r="F64" s="3">
+        <v>83</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J64" s="9">
+        <v>43803.7184375</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:11">
+      <c r="A65" s="3">
+        <v>35791</v>
+      </c>
+      <c r="B65" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2.01912041714261e+20</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>525</v>
+      </c>
+      <c r="F65" s="3">
+        <v>525</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J65" s="9">
+        <v>43803.7183217593</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:11">
+      <c r="A66" s="3">
+        <v>35790</v>
+      </c>
+      <c r="B66" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2.01912041714171e+20</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>690</v>
+      </c>
+      <c r="F66" s="3">
+        <v>690</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J66" s="9">
+        <v>43803.7182175926</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:11">
+      <c r="A67" s="3">
+        <v>35789</v>
+      </c>
+      <c r="B67" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2.01912041714071e+20</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>877</v>
+      </c>
+      <c r="F67" s="3">
+        <v>877</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J67" s="9">
+        <v>43803.7181018519</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:11">
+      <c r="A68" s="3">
+        <v>35788</v>
+      </c>
+      <c r="B68" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2.01912041713581e+20</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>769</v>
+      </c>
+      <c r="F68" s="3">
+        <v>769</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9">
+        <v>43803.7180555556</v>
+      </c>
+      <c r="J68" s="9">
+        <v>43803.7179976852</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:11">
+      <c r="A69" s="3">
+        <v>35787</v>
+      </c>
+      <c r="B69" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2.01912041713481e+20</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>918</v>
+      </c>
+      <c r="F69" s="3">
+        <v>918</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J69" s="9">
+        <v>43803.7178819444</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" ht="15" spans="1:11">
+      <c r="A70" s="3">
+        <v>35786</v>
+      </c>
+      <c r="B70" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2.01912041713391e+20</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1035</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1035</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J70" s="9">
+        <v>43803.7177777778</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:11">
+      <c r="A71" s="3">
+        <v>35785</v>
+      </c>
+      <c r="B71" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2.01912041713291e+20</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>518</v>
+      </c>
+      <c r="F71" s="3">
+        <v>518</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J71" s="9">
+        <v>43803.717650463</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:11">
+      <c r="A72" s="3">
+        <v>35784</v>
+      </c>
+      <c r="B72" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2.01912041713171e+20</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>483</v>
+      </c>
+      <c r="F72" s="3">
+        <v>483</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J72" s="9">
+        <v>43803.7175231481</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" ht="15" spans="1:11">
+      <c r="A73" s="3">
+        <v>35783</v>
+      </c>
+      <c r="B73" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2.01912041713021e+20</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>639</v>
+      </c>
+      <c r="F73" s="3">
+        <v>639</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9">
+        <v>43803.7173611111</v>
+      </c>
+      <c r="J73" s="9">
+        <v>43803.717349537</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" ht="15" spans="1:11">
+      <c r="A74" s="3">
+        <v>35782</v>
+      </c>
+      <c r="B74" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2.01912041712441e+20</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>560</v>
+      </c>
+      <c r="F74" s="3">
+        <v>560</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J74" s="9">
+        <v>43803.7171296296</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="1:11">
+      <c r="A75" s="3">
+        <v>35781</v>
+      </c>
+      <c r="B75" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2.01912041712261e+20</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>812</v>
+      </c>
+      <c r="F75" s="3">
+        <v>812</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J75" s="9">
+        <v>43803.7169328704</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="1:11">
+      <c r="A76" s="3">
+        <v>35780</v>
+      </c>
+      <c r="B76" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2.01912041712161e+20</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3">
+        <v>453</v>
+      </c>
+      <c r="F76" s="3">
+        <v>453</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J76" s="9">
+        <v>43803.7168171296</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" ht="15" spans="1:11">
+      <c r="A77" s="3">
+        <v>35779</v>
+      </c>
+      <c r="B77" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2.01912041712061e+20</v>
+      </c>
+      <c r="D77" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>83</v>
+      </c>
+      <c r="F77" s="3">
+        <v>83</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J77" s="9">
+        <v>43803.716712963</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:11">
+      <c r="A78" s="3">
+        <v>35778</v>
+      </c>
+      <c r="B78" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2.01912041711551e+20</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1163</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1163</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9">
+        <v>43803.7166666667</v>
+      </c>
+      <c r="J78" s="9">
+        <v>43803.7165856482</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="1:11">
+      <c r="A79" s="3">
+        <v>35777</v>
+      </c>
+      <c r="B79" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2.01912041711431e+20</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1059</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1059</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9">
+        <v>43803.7159722222</v>
+      </c>
+      <c r="J79" s="9">
+        <v>43803.7164467593</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="1:11">
+      <c r="A80" s="5">
+        <v>35776</v>
+      </c>
+      <c r="B80" s="5">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.01912041711321e+20</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2</v>
+      </c>
+      <c r="E80" s="5">
+        <v>598</v>
+      </c>
+      <c r="F80" s="5">
+        <v>598</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="12">
+        <v>43803.7159722222</v>
+      </c>
+      <c r="J80" s="12">
+        <v>43803.7163194444</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" ht="15" spans="1:11">
+      <c r="A81" s="1">
+        <v>35775</v>
+      </c>
+      <c r="B81" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2.01912041711141e+20</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>575</v>
+      </c>
+      <c r="F81" s="1">
+        <v>575</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="7">
+        <v>43803.7159722222</v>
+      </c>
+      <c r="J81" s="7">
+        <v>43803.716099537</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="1:11">
+      <c r="A82" s="3">
+        <v>35774</v>
+      </c>
+      <c r="B82" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2.01912041711041e+20</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2</v>
+      </c>
+      <c r="E82" s="3">
+        <v>250</v>
+      </c>
+      <c r="F82" s="3">
+        <v>250</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="9">
+        <v>43803.7159722222</v>
+      </c>
+      <c r="J82" s="9">
+        <v>43803.7159953704</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" ht="15" spans="1:11">
+      <c r="A83" s="3">
+        <v>35773</v>
+      </c>
+      <c r="B83" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2.01912041710541e+20</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>547</v>
+      </c>
+      <c r="F83" s="3">
+        <v>547</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9">
+        <v>43803.7152777778</v>
+      </c>
+      <c r="J83" s="9">
+        <v>43803.7158564815</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:11">
+      <c r="A84" s="3">
+        <v>35772</v>
+      </c>
+      <c r="B84" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2.01912041710411e+20</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>147</v>
+      </c>
+      <c r="F84" s="3">
+        <v>147</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9">
+        <v>43803.7152777778</v>
+      </c>
+      <c r="J84" s="9">
+        <v>43803.7157175926</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:11">
+      <c r="A85" s="3">
+        <v>35771</v>
+      </c>
+      <c r="B85" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2.01912041710271e+20</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>548</v>
+      </c>
+      <c r="F85" s="3">
+        <v>548</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="9">
+        <v>43803.7152777778</v>
+      </c>
+      <c r="J85" s="9">
+        <v>43803.7154050926</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="1:11">
+      <c r="A86" s="3">
         <v>35770</v>
       </c>
-      <c r="B36" s="3">
-        <v>15874</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B86" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C86" s="3">
         <v>2.01912041710031e+20</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D86" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E86" s="3">
         <v>73</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F86" s="3">
         <v>73</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="G86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9">
         <v>43803.7152777778</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J86" s="9">
         <v>43803.7152777778</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:11">
-      <c r="A37" s="5">
+      <c r="K86" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" ht="15" spans="1:11">
+      <c r="A87" s="5">
         <v>35769</v>
       </c>
-      <c r="B37" s="5">
-        <v>15874</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B87" s="5">
+        <v>15874</v>
+      </c>
+      <c r="C87" s="5">
         <v>2.01912041709491e+20</v>
       </c>
-      <c r="D37" s="6">
-        <v>2</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D87" s="6">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5">
         <v>297</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F87" s="5">
         <v>297</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="12">
+      <c r="G87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="12">
         <v>43803.7145833333</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J87" s="12">
         <v>43803.7149652778</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K87" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16573,6 +18325,56 @@
     <hyperlink ref="K35" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
     <hyperlink ref="K36" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
     <hyperlink ref="K37" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K38" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K39" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K40" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K41" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K42" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K43" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K44" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K45" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K46" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K47" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K48" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K49" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K50" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K51" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K52" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K53" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K54" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K55" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K56" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K57" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K58" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K59" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K60" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K61" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K62" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K63" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K64" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K65" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K66" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K67" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K68" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K69" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K70" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K71" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K72" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K73" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K74" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K75" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K76" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K77" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K78" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K79" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K80" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K81" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K82" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K83" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K84" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K85" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K86" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
+    <hyperlink ref="K87" r:id="rId1" display="查看详情" tooltip="http://app.majigo.net/admin_order/javascript:;"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
